--- a/GAJI NOV 2025.xlsx
+++ b/GAJI NOV 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\ARSIP NINI WINDOWS11\DEALER NOVEMBER 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Coolyeah\Udemy\vercel app\laporanGaji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5FA479-5CA4-43B6-9A31-41A876D032AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400BB53F-229F-48CF-93DA-760A5FE5D3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{D61370B7-BC64-4536-9509-01BE739F5398}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{D61370B7-BC64-4536-9509-01BE739F5398}"/>
   </bookViews>
   <sheets>
     <sheet name="BGR" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -117,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="173">
   <si>
     <t>LAPORAN GAJI OKTOBER 2025</t>
   </si>
@@ -317,9 +320,6 @@
     <t>DRIVER</t>
   </si>
   <si>
-    <t>NGATIRIN</t>
-  </si>
-  <si>
     <t>RIDWAN</t>
   </si>
   <si>
@@ -597,12 +597,6 @@
   </si>
   <si>
     <t>SATPAM</t>
-  </si>
-  <si>
-    <t>LISTRIK</t>
-  </si>
-  <si>
-    <t>BEBAN CKR</t>
   </si>
   <si>
     <t>GAJI</t>
@@ -652,12 +646,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -945,38 +939,38 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -992,13 +986,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1013,13 +1007,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,35 +1031,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1081,14 +1075,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1101,19 +1095,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1123,7 +1117,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1139,7 +1133,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1160,7 +1154,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1169,61 +1163,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1231,43 +1225,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1340,9 +1337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1380,7 +1377,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1486,7 +1483,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1628,7 +1625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1639,25 +1636,25 @@
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" customWidth="1"/>
-    <col min="14" max="14" width="10.7265625" customWidth="1"/>
-    <col min="16" max="16" width="11.90625" customWidth="1"/>
-    <col min="17" max="17" width="10.90625" customWidth="1"/>
-    <col min="19" max="19" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1670,7 @@
       <c r="S1" s="9"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1687,7 +1684,7 @@
       <c r="S2" s="9"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1699,7 +1696,7 @@
       <c r="S3" s="9"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="E4" s="12"/>
       <c r="H4" s="13"/>
       <c r="M4" s="14"/>
@@ -1709,7 +1706,7 @@
       <c r="T4" s="16"/>
       <c r="V4" s="17"/>
     </row>
-    <row r="5" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1770,7 +1767,7 @@
       </c>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
@@ -1793,13 +1790,13 @@
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S6" s="31"/>
       <c r="T6" s="26"/>
       <c r="U6" s="17"/>
     </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
         <v>1</v>
       </c>
@@ -1867,7 +1864,7 @@
         <v>4725230</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>2</v>
       </c>
@@ -1935,7 +1932,7 @@
         <v>4675230</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <v>3</v>
       </c>
@@ -2003,7 +2000,7 @@
         <v>3600730</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>4</v>
       </c>
@@ -2063,7 +2060,7 @@
         <v>2925730</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <v>5</v>
       </c>
@@ -2124,7 +2121,7 @@
         <v>3467230</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>6</v>
       </c>
@@ -2186,7 +2183,7 @@
         <v>2917230</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>7</v>
       </c>
@@ -2194,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="17">
         <v>5721797016</v>
@@ -2229,7 +2226,7 @@
         <v>1785000</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>8</v>
       </c>
@@ -2292,7 +2289,7 @@
         <v>2957230</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <v>9</v>
       </c>
@@ -2358,7 +2355,7 @@
         <v>1824230</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>10</v>
       </c>
@@ -2409,7 +2406,7 @@
         <v>1475000</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <v>11</v>
       </c>
@@ -2456,7 +2453,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>12</v>
       </c>
@@ -2495,7 +2492,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>13</v>
       </c>
@@ -2554,7 +2551,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>14</v>
       </c>
@@ -2613,7 +2610,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>15</v>
       </c>
@@ -2671,7 +2668,7 @@
       </c>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="E22" s="41"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2689,7 +2686,7 @@
       <c r="S22" s="45"/>
       <c r="U22" s="46"/>
     </row>
-    <row r="23" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="E23" s="41"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -2707,7 +2704,7 @@
       <c r="S23" s="45"/>
       <c r="U23" s="46"/>
     </row>
-    <row r="24" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -2733,7 +2730,7 @@
       </c>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21" s="56" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" s="56" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A25" s="48">
         <v>1</v>
       </c>
@@ -2797,7 +2794,7 @@
         <v>2499730</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="56" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="56" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
@@ -2826,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <v>2</v>
       </c>
@@ -2884,7 +2881,7 @@
         <v>2652000</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="34"/>
       <c r="B28" s="35"/>
       <c r="C28" s="33"/>
@@ -2913,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <v>3</v>
       </c>
@@ -2969,7 +2966,7 @@
         <v>2610000</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A30" s="34"/>
       <c r="B30" s="35"/>
       <c r="C30" s="33"/>
@@ -3004,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="34">
         <v>4</v>
       </c>
@@ -3058,7 +3055,7 @@
         <v>2612500</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" s="59"/>
       <c r="E32" s="41"/>
@@ -3084,7 +3081,7 @@
       <c r="R32" s="36"/>
       <c r="S32" s="45"/>
     </row>
-    <row r="33" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -3110,7 +3107,7 @@
       <c r="T33" s="60"/>
       <c r="U33" s="46"/>
     </row>
-    <row r="34" spans="1:22" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="E34" s="61"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -3144,7 +3141,7 @@
       </c>
       <c r="U34" s="64"/>
     </row>
-    <row r="35" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="E35" s="41"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -3164,7 +3161,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="64"/>
     </row>
-    <row r="36" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
         <v>57</v>
       </c>
@@ -3185,7 +3182,7 @@
       <c r="R36" s="36"/>
       <c r="S36" s="45"/>
     </row>
-    <row r="37" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>58</v>
       </c>
@@ -3211,7 +3208,7 @@
       <c r="R37" s="45"/>
       <c r="S37" s="5"/>
     </row>
-    <row r="38" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="D38" s="41"/>
       <c r="F38" s="5"/>
       <c r="G38" s="36"/>
@@ -3228,7 +3225,7 @@
       <c r="R38" s="45"/>
       <c r="S38" s="5"/>
     </row>
-    <row r="39" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="D39" s="41"/>
       <c r="F39" s="5"/>
       <c r="G39" s="36"/>
@@ -3245,7 +3242,7 @@
       <c r="R39" s="45"/>
       <c r="S39" s="5"/>
     </row>
-    <row r="40" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="D40" s="41"/>
       <c r="F40" s="5"/>
       <c r="G40" s="36"/>
@@ -3262,7 +3259,7 @@
       <c r="R40" s="45"/>
       <c r="S40" s="5"/>
     </row>
-    <row r="41" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="D41" s="41"/>
       <c r="F41" s="5"/>
       <c r="G41" s="36"/>
@@ -3279,7 +3276,7 @@
       <c r="R41" s="45"/>
       <c r="S41" s="5"/>
     </row>
-    <row r="42" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
         <v>61</v>
       </c>
@@ -3304,7 +3301,7 @@
       <c r="R42" s="45"/>
       <c r="S42" s="5"/>
     </row>
-    <row r="43" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="D43" s="41"/>
@@ -3321,7 +3318,7 @@
       <c r="R43" s="45"/>
       <c r="S43" s="5"/>
     </row>
-    <row r="44" spans="1:22" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
       <c r="E44" s="41"/>
@@ -3349,42 +3346,41 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" customWidth="1"/>
-    <col min="16" max="16" width="12.08984375" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="16" width="12.140625" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="16.36328125" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+    <row r="3" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G3" s="68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="G3" s="68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A4" s="72"/>
       <c r="B4" s="73" t="s">
         <v>2</v>
@@ -3405,7 +3401,7 @@
       <c r="Q4" s="72"/>
       <c r="R4" s="75"/>
     </row>
-    <row r="5" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A5" s="76" t="s">
         <v>3</v>
       </c>
@@ -3413,16 +3409,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="76" t="s">
         <v>74</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>75</v>
       </c>
       <c r="G5" s="78" t="s">
         <v>9</v>
@@ -3432,34 +3428,34 @@
         <v>10</v>
       </c>
       <c r="J5" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="76" t="s">
+      <c r="L5" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="M5" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="80" t="s">
+      <c r="N5" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="N5" s="76" t="s">
+      <c r="O5" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="76" t="s">
+      <c r="P5" s="81" t="s">
         <v>81</v>
-      </c>
-      <c r="P5" s="81" t="s">
-        <v>82</v>
       </c>
       <c r="Q5" s="82"/>
       <c r="R5" s="83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S5" s="84"/>
       <c r="T5" s="85"/>
     </row>
-    <row r="6" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A6" s="86"/>
       <c r="B6" s="86"/>
       <c r="C6" s="86"/>
@@ -3485,19 +3481,19 @@
         <v>20</v>
       </c>
       <c r="Q6" s="86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R6" s="88"/>
       <c r="S6" s="84"/>
       <c r="T6" s="85"/>
     </row>
-    <row r="7" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A7" s="86"/>
       <c r="B7" s="86"/>
       <c r="C7" s="86"/>
       <c r="D7" s="86"/>
       <c r="E7" s="108" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
@@ -3515,18 +3511,18 @@
       <c r="S7" s="84"/>
       <c r="T7" s="85"/>
     </row>
-    <row r="8" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A8" s="72">
         <v>1</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="68">
         <v>1091895116</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="89">
         <v>27</v>
@@ -3574,18 +3570,18 @@
       </c>
       <c r="T8" s="85"/>
     </row>
-    <row r="9" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A9" s="72">
         <v>2</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="68">
         <v>1092321481</v>
       </c>
       <c r="D9" s="89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="89">
         <v>27</v>
@@ -3633,18 +3629,18 @@
       </c>
       <c r="T9" s="85"/>
     </row>
-    <row r="10" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A10" s="72">
         <v>3</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="65">
         <v>1092291981</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="94">
         <v>26</v>
@@ -3690,18 +3686,18 @@
       </c>
       <c r="T10" s="95"/>
     </row>
-    <row r="11" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="72">
         <v>4</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="65">
         <v>1092338970</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="94">
         <v>27</v>
@@ -3745,18 +3741,18 @@
       </c>
       <c r="T11" s="95"/>
     </row>
-    <row r="12" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="72">
         <v>5</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="65">
         <v>1092408218</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="94">
         <v>27</v>
@@ -3804,18 +3800,18 @@
       </c>
       <c r="T12" s="92"/>
     </row>
-    <row r="13" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A13" s="72">
         <v>6</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="65">
         <v>5765512724</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="94">
         <v>27</v>
@@ -3863,18 +3859,18 @@
       </c>
       <c r="T13" s="92"/>
     </row>
-    <row r="14" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="72">
         <v>7</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="65">
         <v>8730573911</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="94">
         <v>27</v>
@@ -3922,18 +3918,18 @@
       </c>
       <c r="T14" s="92"/>
     </row>
-    <row r="15" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A15" s="72">
         <v>8</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="68">
         <v>1091894454</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="110">
         <v>27</v>
@@ -3981,18 +3977,18 @@
       </c>
       <c r="T15" s="92"/>
     </row>
-    <row r="16" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="72">
         <v>9</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="99">
         <v>1091894497</v>
       </c>
       <c r="D16" s="99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="111">
         <v>27</v>
@@ -4041,18 +4037,18 @@
       </c>
       <c r="T16" s="92"/>
     </row>
-    <row r="17" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A17" s="72">
         <v>10</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="99">
         <v>1093080738</v>
       </c>
       <c r="D17" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="111">
         <v>27</v>
@@ -4096,12 +4092,12 @@
       </c>
       <c r="T17" s="92"/>
     </row>
-    <row r="18" spans="1:20" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="72">
         <v>11</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="65">
         <v>3431610050</v>
@@ -4155,12 +4151,12 @@
       </c>
       <c r="T18" s="95"/>
     </row>
-    <row r="19" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="72">
         <v>12</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="65">
         <v>1091894594</v>
@@ -4212,12 +4208,12 @@
       </c>
       <c r="T19" s="101"/>
     </row>
-    <row r="20" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="72">
         <v>13</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="89">
         <v>3780462191</v>
@@ -4267,18 +4263,18 @@
       </c>
       <c r="T20" s="92"/>
     </row>
-    <row r="21" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A21" s="72">
         <v>14</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="68">
         <v>1091892583</v>
       </c>
       <c r="D21" s="89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="89">
         <v>27</v>
@@ -4326,18 +4322,18 @@
       </c>
       <c r="T21" s="85"/>
     </row>
-    <row r="22" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="72">
         <v>15</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="65">
         <v>1091894489</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="94">
         <v>26</v>
@@ -4381,18 +4377,18 @@
       </c>
       <c r="T22" s="95"/>
     </row>
-    <row r="23" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="72">
         <v>16</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="103">
         <v>1091892877</v>
       </c>
       <c r="D23" s="99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="99">
         <v>27</v>
@@ -4435,12 +4431,12 @@
       </c>
       <c r="T23" s="95"/>
     </row>
-    <row r="24" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="72"/>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
       <c r="D24" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="112"/>
       <c r="F24" s="93"/>
@@ -4448,7 +4444,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="93"/>
       <c r="J24" s="93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K24" s="93"/>
       <c r="L24" s="93"/>
@@ -4466,13 +4462,13 @@
         <f>SUM(Q21:Q23)</f>
         <v>800000</v>
       </c>
-      <c r="R24" s="92">
+      <c r="R24" s="143">
         <f>O24-P24-Q24</f>
         <v>9210040</v>
       </c>
       <c r="S24" s="95"/>
     </row>
-    <row r="25" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A25" s="72"/>
       <c r="B25" s="102" t="s">
         <v>65</v>
@@ -4495,18 +4491,18 @@
       <c r="R25" s="92"/>
       <c r="T25" s="95"/>
     </row>
-    <row r="26" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A26" s="47">
         <v>1</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="65">
         <v>1091894624</v>
       </c>
       <c r="D26" s="94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" s="94">
         <v>27</v>
@@ -4558,18 +4554,18 @@
       <c r="S26" s="69"/>
       <c r="T26" s="71"/>
     </row>
-    <row r="27" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A27" s="72">
         <v>2</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="65">
         <v>8730628243</v>
       </c>
       <c r="D27" s="94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" s="94">
         <v>27</v>
@@ -4617,18 +4613,18 @@
         <v>4260000</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="72">
         <v>3</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="65">
         <v>8761064797</v>
       </c>
       <c r="D28" s="94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" s="94">
         <v>27</v>
@@ -4675,18 +4671,18 @@
       </c>
       <c r="S28" s="105"/>
     </row>
-    <row r="29" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A29" s="72">
         <v>4</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="68">
         <v>1091894608</v>
       </c>
       <c r="D29" s="94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" s="94">
         <v>27</v>
@@ -4732,18 +4728,18 @@
       <c r="S29" s="85"/>
       <c r="T29" s="85"/>
     </row>
-    <row r="30" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A30" s="72">
         <v>5</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="68">
         <v>1091894616</v>
       </c>
       <c r="D30" s="89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" s="94">
         <v>26</v>
@@ -4789,9 +4785,9 @@
       <c r="S30" s="85"/>
       <c r="T30" s="85"/>
     </row>
-    <row r="31" spans="1:20" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="D31" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="109"/>
       <c r="F31" s="69"/>
@@ -4829,28 +4825,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EC4FE7-41C6-4EC6-9A2C-ED5198A12057}">
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="10.6328125" customWidth="1"/>
-    <col min="13" max="14" width="10.26953125" customWidth="1"/>
-    <col min="16" max="16" width="13.453125" customWidth="1"/>
-    <col min="22" max="22" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65"/>
       <c r="B1" s="113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" s="65"/>
       <c r="K1" s="114"/>
@@ -4863,16 +4861,16 @@
       <c r="T1" s="65"/>
       <c r="U1" s="65"/>
     </row>
-    <row r="2" spans="1:23" s="113" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="113" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A2" s="65"/>
       <c r="B2" s="113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="65"/>
       <c r="K2" s="114"/>
       <c r="L2" s="114"/>
     </row>
-    <row r="3" spans="1:23" s="113" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="113" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="115" t="s">
         <v>3</v>
       </c>
@@ -4886,10 +4884,10 @@
         <v>64</v>
       </c>
       <c r="E3" s="115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="116" t="s">
         <v>15</v>
@@ -4899,39 +4897,39 @@
         <v>10</v>
       </c>
       <c r="J3" s="115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K3" s="115" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="115" t="s">
+      <c r="N3" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="O3" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="O3" s="115" t="s">
+      <c r="P3" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q3" s="118" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="121" t="s">
+      <c r="Q3" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="V3" s="122"/>
-    </row>
-    <row r="4" spans="1:23" s="113" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="123"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="119"/>
+    </row>
+    <row r="4" spans="1:23" s="113" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -4949,35 +4947,35 @@
       <c r="L4" s="69"/>
       <c r="M4" s="69"/>
       <c r="N4" s="69" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O4" s="69"/>
       <c r="P4" s="69"/>
       <c r="Q4" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="S4" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="S4" s="69" t="s">
-        <v>130</v>
-      </c>
       <c r="T4" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" s="124"/>
+        <v>68</v>
+      </c>
+      <c r="U4" s="121"/>
       <c r="V4" s="69"/>
       <c r="W4" s="69"/>
     </row>
-    <row r="5" spans="1:23" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A5" s="68">
         <v>1</v>
       </c>
       <c r="B5" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="68" t="s">
         <v>131</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>132</v>
       </c>
       <c r="E5" s="68">
         <v>26</v>
@@ -5005,7 +5003,7 @@
         <v>600000</v>
       </c>
       <c r="M5" s="69">
-        <f t="shared" ref="M5:M9" si="0">G5*H5</f>
+        <f>G5*H5</f>
         <v>1395000</v>
       </c>
       <c r="N5" s="69"/>
@@ -5032,15 +5030,15 @@
       </c>
       <c r="V5" s="69"/>
     </row>
-    <row r="6" spans="1:23" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A6" s="68">
         <v>2</v>
       </c>
       <c r="B6" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>133</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>134</v>
       </c>
       <c r="E6" s="68">
         <v>25</v>
@@ -5068,7 +5066,7 @@
         <v>400000</v>
       </c>
       <c r="M6" s="69">
-        <f t="shared" si="0"/>
+        <f>G6*H6</f>
         <v>1347000</v>
       </c>
       <c r="N6" s="69"/>
@@ -5076,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="69">
-        <f t="shared" ref="P6:P15" si="1">SUM(I6:O6)</f>
+        <f>SUM(I6:O6)</f>
         <v>3822000</v>
       </c>
       <c r="Q6" s="69">
@@ -5093,15 +5091,15 @@
       </c>
       <c r="V6" s="69"/>
     </row>
-    <row r="7" spans="1:23" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A7" s="68">
         <v>3</v>
       </c>
       <c r="B7" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="68" t="s">
         <v>135</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>136</v>
       </c>
       <c r="E7" s="68">
         <v>26</v>
@@ -5129,7 +5127,7 @@
         <v>400000</v>
       </c>
       <c r="M7" s="69">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M7:M9" si="0">G7*H7</f>
         <v>1446000</v>
       </c>
       <c r="N7" s="69"/>
@@ -5137,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="69">
-        <f t="shared" si="1"/>
+        <f>SUM(I7:O7)</f>
         <v>3946000</v>
       </c>
       <c r="Q7" s="69">
@@ -5149,20 +5147,20 @@
       <c r="S7" s="69"/>
       <c r="T7" s="69"/>
       <c r="U7" s="68">
-        <f t="shared" ref="U7:U23" si="2">P7-Q7-R7-S7-T7</f>
+        <f t="shared" ref="U7:U22" si="1">P7-Q7-R7-S7-T7</f>
         <v>3776141</v>
       </c>
       <c r="V7" s="69"/>
     </row>
-    <row r="8" spans="1:23" s="65" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="65" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A8" s="68">
         <v>4</v>
       </c>
       <c r="B8" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>137</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>138</v>
       </c>
       <c r="E8" s="68">
         <v>27</v>
@@ -5198,7 +5196,7 @@
         <v>200000</v>
       </c>
       <c r="P8" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P8:P15" si="2">SUM(I8:O8)</f>
         <v>4471000</v>
       </c>
       <c r="Q8" s="93"/>
@@ -5210,21 +5208,21 @@
         <v>100000</v>
       </c>
       <c r="U8" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4256726</v>
       </c>
       <c r="V8" s="93"/>
       <c r="W8" s="68"/>
     </row>
-    <row r="9" spans="1:23" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A9" s="68">
         <v>5</v>
       </c>
       <c r="B9" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="68" t="s">
         <v>139</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>140</v>
       </c>
       <c r="E9" s="68">
         <v>26</v>
@@ -5262,7 +5260,7 @@
         <v>100000</v>
       </c>
       <c r="P9" s="69">
-        <f t="shared" si="1"/>
+        <f>SUM(I9:O9)</f>
         <v>4521000</v>
       </c>
       <c r="Q9" s="69"/>
@@ -5274,20 +5272,20 @@
         <v>10000</v>
       </c>
       <c r="U9" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4011000</v>
       </c>
       <c r="V9" s="69"/>
     </row>
-    <row r="10" spans="1:23" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A10" s="68">
         <v>6</v>
       </c>
       <c r="B10" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="68" t="s">
         <v>141</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>142</v>
       </c>
       <c r="E10" s="68">
         <v>26</v>
@@ -5308,14 +5306,14 @@
         <v>200000</v>
       </c>
       <c r="K10" s="69">
-        <f t="shared" ref="K10:K22" si="3">E10*F10</f>
+        <f>E10*F10</f>
         <v>650000</v>
       </c>
       <c r="L10" s="69">
         <v>200000</v>
       </c>
       <c r="M10" s="69">
-        <f t="shared" ref="M10:M14" si="4">G10*H10</f>
+        <f t="shared" ref="M10:M14" si="3">G10*H10</f>
         <v>697500</v>
       </c>
       <c r="N10" s="69"/>
@@ -5323,7 +5321,7 @@
         <v>100000</v>
       </c>
       <c r="P10" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2947500</v>
       </c>
       <c r="Q10" s="69"/>
@@ -5335,17 +5333,17 @@
         <v>20000</v>
       </c>
       <c r="U10" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2627500</v>
       </c>
       <c r="V10" s="69"/>
     </row>
-    <row r="11" spans="1:23" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="68">
         <v>7</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>38</v>
@@ -5369,14 +5367,14 @@
         <v>200000</v>
       </c>
       <c r="K11" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K11:K22" si="4">E11*F11</f>
         <v>700000</v>
       </c>
       <c r="L11" s="69">
         <v>250000</v>
       </c>
       <c r="M11" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>754500</v>
       </c>
       <c r="N11" s="69"/>
@@ -5384,7 +5382,7 @@
         <v>100000</v>
       </c>
       <c r="P11" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3104500</v>
       </c>
       <c r="Q11" s="69">
@@ -5398,17 +5396,17 @@
         <v>110000</v>
       </c>
       <c r="U11" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2994500</v>
       </c>
       <c r="V11" s="69"/>
     </row>
-    <row r="12" spans="1:23" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="68">
         <v>8</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>38</v>
@@ -5432,14 +5430,14 @@
         <v>200000</v>
       </c>
       <c r="K12" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>675000</v>
       </c>
       <c r="L12" s="69">
         <v>250000</v>
       </c>
       <c r="M12" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1006000</v>
       </c>
       <c r="N12" s="69"/>
@@ -5447,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3231000</v>
       </c>
       <c r="Q12" s="69">
@@ -5461,21 +5459,21 @@
         <v>60000</v>
       </c>
       <c r="U12" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3115415</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="68" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="68">
         <v>9</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="125">
+      <c r="D13" s="122">
         <v>5721359426</v>
       </c>
       <c r="E13" s="68">
@@ -5497,14 +5495,14 @@
         <v>200000</v>
       </c>
       <c r="K13" s="69">
+        <f>E13*F13</f>
+        <v>560000</v>
+      </c>
+      <c r="L13" s="69">
+        <v>0</v>
+      </c>
+      <c r="M13" s="69">
         <f t="shared" si="3"/>
-        <v>560000</v>
-      </c>
-      <c r="L13" s="69">
-        <v>0</v>
-      </c>
-      <c r="M13" s="69">
-        <f t="shared" si="4"/>
         <v>482000</v>
       </c>
       <c r="N13" s="69"/>
@@ -5512,7 +5510,7 @@
         <v>100000</v>
       </c>
       <c r="P13" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2442000</v>
       </c>
       <c r="Q13" s="69"/>
@@ -5522,22 +5520,22 @@
       </c>
       <c r="T13" s="69"/>
       <c r="U13" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2242000</v>
       </c>
-      <c r="V13" s="125">
+      <c r="V13" s="122">
         <v>5721359426</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="68">
         <v>10</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="68">
         <v>27</v>
@@ -5558,14 +5556,14 @@
         <v>200000</v>
       </c>
       <c r="K14" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>675000</v>
       </c>
       <c r="L14" s="69">
         <v>600000</v>
       </c>
       <c r="M14" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1446000</v>
       </c>
       <c r="N14" s="69">
@@ -5575,7 +5573,7 @@
         <v>100000</v>
       </c>
       <c r="P14" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5221000</v>
       </c>
       <c r="Q14" s="69"/>
@@ -5587,140 +5585,140 @@
         <v>45000</v>
       </c>
       <c r="U14" s="68">
+        <f t="shared" si="1"/>
+        <v>4676000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="133" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="132">
+        <v>11</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="136">
+        <v>5465561201</v>
+      </c>
+      <c r="E15" s="132">
+        <v>27</v>
+      </c>
+      <c r="F15" s="134">
+        <v>25000</v>
+      </c>
+      <c r="G15" s="135">
+        <v>384</v>
+      </c>
+      <c r="H15" s="134">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="134">
+        <v>1000000</v>
+      </c>
+      <c r="J15" s="134">
+        <v>200000</v>
+      </c>
+      <c r="K15" s="134">
+        <f t="shared" si="4"/>
+        <v>675000</v>
+      </c>
+      <c r="L15" s="134">
+        <v>100000</v>
+      </c>
+      <c r="M15" s="134">
+        <f t="shared" ref="M15:M19" si="5">G15*H15</f>
+        <v>384000</v>
+      </c>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134">
+        <v>100000</v>
+      </c>
+      <c r="P15" s="134">
         <f t="shared" si="2"/>
-        <v>4676000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="136" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="135">
-        <v>11</v>
-      </c>
-      <c r="B15" s="136" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="136" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="139">
-        <v>5465561201</v>
-      </c>
-      <c r="E15" s="135">
-        <v>27</v>
-      </c>
-      <c r="F15" s="137">
-        <v>25000</v>
-      </c>
-      <c r="G15" s="138">
-        <v>384</v>
-      </c>
-      <c r="H15" s="137">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="137">
-        <v>1000000</v>
-      </c>
-      <c r="J15" s="137">
-        <v>200000</v>
-      </c>
-      <c r="K15" s="137">
-        <f t="shared" si="3"/>
-        <v>675000</v>
-      </c>
-      <c r="L15" s="137">
-        <v>100000</v>
-      </c>
-      <c r="M15" s="137">
-        <f>G15*H15</f>
-        <v>384000</v>
-      </c>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137">
-        <v>100000</v>
-      </c>
-      <c r="P15" s="137">
+        <v>2459000</v>
+      </c>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="132">
         <f t="shared" si="1"/>
         <v>2459000</v>
       </c>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="137"/>
-      <c r="T15" s="137"/>
-      <c r="U15" s="135">
-        <f t="shared" si="2"/>
-        <v>2459000</v>
-      </c>
-      <c r="V15" s="139">
+      <c r="V15" s="136">
         <v>5465561201</v>
       </c>
-      <c r="W15" s="135"/>
-    </row>
-    <row r="16" spans="1:23" s="136" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="135">
+      <c r="W15" s="132"/>
+    </row>
+    <row r="16" spans="1:23" s="133" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="132">
         <v>12</v>
       </c>
-      <c r="B16" s="136" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="136" t="s">
+      <c r="B16" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="135">
+      <c r="C16" s="133" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="132">
         <v>27</v>
       </c>
-      <c r="F16" s="137">
+      <c r="F16" s="134">
         <v>25000</v>
       </c>
-      <c r="G16" s="138">
+      <c r="G16" s="135">
         <v>384</v>
       </c>
-      <c r="H16" s="137">
+      <c r="H16" s="134">
         <v>1000</v>
       </c>
-      <c r="I16" s="137">
+      <c r="I16" s="134">
         <v>1000000</v>
       </c>
-      <c r="J16" s="137">
+      <c r="J16" s="134">
         <v>200000</v>
       </c>
-      <c r="K16" s="137">
-        <f t="shared" si="3"/>
+      <c r="K16" s="134">
+        <f t="shared" si="4"/>
         <v>675000</v>
       </c>
-      <c r="L16" s="137">
+      <c r="L16" s="134">
         <v>100000</v>
       </c>
-      <c r="M16" s="137">
-        <f>G16*H16</f>
+      <c r="M16" s="134">
+        <f t="shared" si="5"/>
         <v>384000</v>
       </c>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137">
+      <c r="N16" s="134"/>
+      <c r="O16" s="134">
         <v>100000</v>
       </c>
-      <c r="P16" s="137">
+      <c r="P16" s="134">
         <f>SUM(I16:O16)</f>
         <v>2459000</v>
       </c>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="135">
-        <f t="shared" si="2"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="132">
+        <f t="shared" si="1"/>
         <v>2459000</v>
       </c>
-      <c r="V16" s="139"/>
-      <c r="W16" s="135"/>
-    </row>
-    <row r="17" spans="1:30" s="65" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="V16" s="136"/>
+      <c r="W16" s="132"/>
+    </row>
+    <row r="17" spans="1:30" s="65" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A17" s="68">
         <v>13</v>
       </c>
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>151</v>
       </c>
       <c r="E17" s="68">
         <v>27</v>
@@ -5741,14 +5739,14 @@
         <v>200000</v>
       </c>
       <c r="K17" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>675000</v>
       </c>
       <c r="L17" s="93">
         <v>100000</v>
       </c>
       <c r="M17" s="93">
-        <f>G17*H17</f>
+        <f t="shared" si="5"/>
         <v>964000</v>
       </c>
       <c r="N17" s="93"/>
@@ -5756,7 +5754,7 @@
         <v>100000</v>
       </c>
       <c r="P17" s="93">
-        <f t="shared" ref="P17:P34" si="5">SUM(I17:O17)</f>
+        <f t="shared" ref="P17:P22" si="6">SUM(I17:O17)</f>
         <v>3039000</v>
       </c>
       <c r="Q17" s="93"/>
@@ -5766,21 +5764,21 @@
         <v>30000</v>
       </c>
       <c r="U17" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3009000</v>
       </c>
       <c r="V17" s="93"/>
       <c r="W17" s="68"/>
     </row>
-    <row r="18" spans="1:30" s="65" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="65" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="68">
         <v>14</v>
       </c>
       <c r="B18" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="65" t="s">
         <v>152</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>153</v>
       </c>
       <c r="D18" s="65">
         <v>8760435792</v>
@@ -5804,14 +5802,14 @@
         <v>200000</v>
       </c>
       <c r="K18" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>675000</v>
       </c>
       <c r="L18" s="93">
         <v>400000</v>
       </c>
       <c r="M18" s="93">
-        <f>G18*H18</f>
+        <f t="shared" si="5"/>
         <v>1446000</v>
       </c>
       <c r="N18" s="93"/>
@@ -5819,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4021000</v>
       </c>
       <c r="Q18" s="69">
@@ -5833,22 +5831,22 @@
         <v>10000</v>
       </c>
       <c r="U18" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3655415</v>
       </c>
       <c r="V18" s="93"/>
       <c r="W18" s="68"/>
       <c r="X18" s="68"/>
     </row>
-    <row r="19" spans="1:30" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="68">
         <v>15</v>
       </c>
       <c r="B19" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="68" t="s">
         <v>154</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>155</v>
       </c>
       <c r="E19" s="68">
         <v>31</v>
@@ -5867,20 +5865,20 @@
         <v>200000</v>
       </c>
       <c r="K19" s="69">
-        <f t="shared" si="3"/>
+        <f>E19*F19</f>
         <v>775000</v>
       </c>
       <c r="L19" s="69">
         <v>500000</v>
       </c>
       <c r="M19" s="69">
-        <f>G19*H19</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N19" s="69"/>
       <c r="O19" s="69"/>
       <c r="P19" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2975000</v>
       </c>
       <c r="Q19" s="69">
@@ -5896,17 +5894,17 @@
         <v>15000</v>
       </c>
       <c r="U19" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2204415</v>
       </c>
       <c r="V19" s="69"/>
     </row>
-    <row r="20" spans="1:30" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="68">
         <v>16</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="68" t="s">
         <v>42</v>
@@ -5926,7 +5924,7 @@
         <v>200000</v>
       </c>
       <c r="K20" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>675000</v>
       </c>
       <c r="L20" s="69"/>
@@ -5939,7 +5937,7 @@
         <v>150000</v>
       </c>
       <c r="P20" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2525000</v>
       </c>
       <c r="Q20" s="69"/>
@@ -5949,23 +5947,23 @@
       </c>
       <c r="T20" s="69"/>
       <c r="U20" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
-      <c r="V20" s="138"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="135"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="135"/>
-    </row>
-    <row r="21" spans="1:30" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="V20" s="135"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+      <c r="AB20" s="132"/>
+    </row>
+    <row r="21" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A21" s="68">
         <v>17</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>42</v>
@@ -5985,7 +5983,7 @@
         <v>200000</v>
       </c>
       <c r="K21" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>675000</v>
       </c>
       <c r="L21" s="69">
@@ -5997,7 +5995,7 @@
         <v>100000</v>
       </c>
       <c r="P21" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2175000</v>
       </c>
       <c r="Q21" s="69"/>
@@ -6007,26 +6005,26 @@
       </c>
       <c r="T21" s="69"/>
       <c r="U21" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1875000</v>
       </c>
-      <c r="V21" s="138"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-    </row>
-    <row r="22" spans="1:30" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="V21" s="135"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
+    </row>
+    <row r="22" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="68">
         <v>18</v>
       </c>
       <c r="B22" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="68" t="s">
         <v>158</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>159</v>
       </c>
       <c r="E22" s="68">
         <v>27</v>
@@ -6045,7 +6043,7 @@
         <v>200000</v>
       </c>
       <c r="K22" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>675000</v>
       </c>
       <c r="L22" s="69">
@@ -6059,7 +6057,7 @@
         <v>250000</v>
       </c>
       <c r="P22" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2625000</v>
       </c>
       <c r="Q22" s="69"/>
@@ -6069,759 +6067,716 @@
       <c r="S22" s="69"/>
       <c r="T22" s="69"/>
       <c r="U22" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2625000</v>
       </c>
-      <c r="V22" s="138"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="135"/>
-    </row>
-    <row r="23" spans="1:30" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="68">
-        <v>19</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>160</v>
-      </c>
+      <c r="V22" s="135"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
+    </row>
+    <row r="23" spans="1:30" s="68" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="65"/>
       <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="69">
-        <v>1500000</v>
-      </c>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="69"/>
       <c r="K23" s="69"/>
       <c r="L23" s="69"/>
       <c r="M23" s="69"/>
       <c r="N23" s="69"/>
       <c r="O23" s="69"/>
-      <c r="P23" s="69">
-        <f>SUM(I23:O23)</f>
-        <v>1500000</v>
-      </c>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
       <c r="S23" s="69"/>
-      <c r="U23" s="68">
-        <f t="shared" si="2"/>
-        <v>1500000</v>
-      </c>
-      <c r="V23" s="138"/>
+      <c r="T23" s="69"/>
+      <c r="V23" s="135"/>
       <c r="W23" s="135"/>
       <c r="X23" s="135"/>
       <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="135"/>
-    </row>
-    <row r="24" spans="1:30" s="68" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="V24" s="138"/>
-      <c r="W24" s="138"/>
-      <c r="X24" s="138"/>
-      <c r="Y24" s="138"/>
-      <c r="Z24" s="140"/>
-      <c r="AA24" s="140"/>
-      <c r="AB24" s="140"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-    </row>
-    <row r="25" spans="1:30" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="128" t="s">
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="124"/>
+    </row>
+    <row r="24" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="129" t="s">
+      <c r="B24" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="129" t="s">
+      <c r="C24" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="129"/>
-      <c r="E25" s="130">
+      <c r="D24" s="126"/>
+      <c r="E24" s="127">
         <v>80</v>
       </c>
-      <c r="F25" s="130">
+      <c r="F24" s="127">
         <v>1000000</v>
       </c>
-      <c r="G25" s="131" t="s">
-        <v>175</v>
-      </c>
-      <c r="H25" s="131"/>
-      <c r="I25" s="132" t="s">
+      <c r="G24" s="128" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="128"/>
+      <c r="I24" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" s="129"/>
+      <c r="K24" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="P24" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132" t="s">
+      <c r="R24" s="129"/>
+      <c r="S24" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="T24" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="U24" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="132"/>
+    </row>
+    <row r="25" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="125"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="M25" s="132" t="s">
-        <v>163</v>
-      </c>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132" t="s">
+      <c r="G25" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="128" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
+    </row>
+    <row r="26" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="125">
+        <v>1</v>
+      </c>
+      <c r="B26" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="P25" s="132" t="s">
+      <c r="C26" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126">
+        <v>25</v>
+      </c>
+      <c r="F26" s="128">
+        <v>40000</v>
+      </c>
+      <c r="G26" s="128">
+        <v>87</v>
+      </c>
+      <c r="H26" s="128">
+        <v>3500</v>
+      </c>
+      <c r="I26" s="129">
+        <f>G26/E24*F24</f>
+        <v>1087500</v>
+      </c>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129">
+        <f>E26*F26</f>
+        <v>1000000</v>
+      </c>
+      <c r="L26" s="129">
+        <v>200000</v>
+      </c>
+      <c r="M26" s="129">
+        <f>G26*H26+G27*H27</f>
+        <v>379500</v>
+      </c>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129">
+        <v>0</v>
+      </c>
+      <c r="P26" s="129">
+        <f>SUM(I26:O26)</f>
+        <v>2667000</v>
+      </c>
+      <c r="Q26" s="129">
+        <v>55585</v>
+      </c>
+      <c r="R26" s="129">
+        <v>0</v>
+      </c>
+      <c r="S26" s="129">
+        <v>500000</v>
+      </c>
+      <c r="T26" s="129"/>
+      <c r="U26" s="125">
+        <f t="shared" ref="U26:U33" si="7">P26-Q26-R26-S26-T26</f>
+        <v>2111415</v>
+      </c>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="138"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+    </row>
+    <row r="27" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="125"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128">
+        <v>15</v>
+      </c>
+      <c r="H27" s="128">
+        <v>5000</v>
+      </c>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129">
+        <f>SUM(I27:O27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="138"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
+    </row>
+    <row r="28" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="125">
+        <v>2</v>
+      </c>
+      <c r="B28" s="130" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130">
+        <v>26</v>
+      </c>
+      <c r="F28" s="131">
+        <v>40000</v>
+      </c>
+      <c r="G28" s="131">
+        <v>125</v>
+      </c>
+      <c r="H28" s="129">
+        <v>4000</v>
+      </c>
+      <c r="I28" s="129">
+        <f>G28/E24*F24</f>
+        <v>1562500</v>
+      </c>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129">
+        <f t="shared" ref="K28:K35" si="8">E28*F28</f>
+        <v>1040000</v>
+      </c>
+      <c r="L28" s="129">
+        <v>200000</v>
+      </c>
+      <c r="M28" s="129">
+        <f>G28*H28+G29*H29</f>
+        <v>585000</v>
+      </c>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129">
+        <v>0</v>
+      </c>
+      <c r="P28" s="129">
+        <f t="shared" ref="P28:P33" si="9">SUM(I28:O28)</f>
+        <v>3387500</v>
+      </c>
+      <c r="Q28" s="129">
+        <v>55585</v>
+      </c>
+      <c r="R28" s="129">
+        <v>0</v>
+      </c>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="125">
+        <f t="shared" si="7"/>
+        <v>3331915</v>
+      </c>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="132"/>
+    </row>
+    <row r="29" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="125"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129">
         <v>17</v>
       </c>
-      <c r="Q25" s="132" t="s">
-        <v>165</v>
-      </c>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="T25" s="132" t="s">
-        <v>69</v>
-      </c>
-      <c r="U25" s="128" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="138"/>
-      <c r="W25" s="138"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
-    </row>
-    <row r="26" spans="1:30" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="128"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129" t="s">
+      <c r="H29" s="129">
+        <v>5000</v>
+      </c>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="129"/>
+      <c r="U29" s="125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="138"/>
+      <c r="Y29" s="139"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+    </row>
+    <row r="30" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="125">
+        <v>3</v>
+      </c>
+      <c r="B30" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="138"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="135"/>
-    </row>
-    <row r="27" spans="1:30" s="68" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="128">
-        <v>1</v>
-      </c>
-      <c r="B27" s="129" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="129" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129">
+      <c r="C30" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125">
         <v>25</v>
       </c>
-      <c r="F27" s="131">
+      <c r="F30" s="129">
         <v>40000</v>
       </c>
-      <c r="G27" s="131">
-        <v>87</v>
-      </c>
-      <c r="H27" s="131">
+      <c r="G30" s="129">
+        <v>97</v>
+      </c>
+      <c r="H30" s="129">
         <v>3500</v>
       </c>
-      <c r="I27" s="132">
-        <f>G27/E25*F25</f>
-        <v>1087500</v>
-      </c>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132">
-        <f>E27*F27</f>
-        <v>1000000</v>
-      </c>
-      <c r="L27" s="132">
-        <v>200000</v>
-      </c>
-      <c r="M27" s="132">
-        <f>G27*H27+G28*H28</f>
-        <v>379500</v>
-      </c>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132">
-        <v>0</v>
-      </c>
-      <c r="P27" s="132">
-        <f>SUM(I27:O27)</f>
-        <v>2667000</v>
-      </c>
-      <c r="Q27" s="132">
-        <v>55585</v>
-      </c>
-      <c r="R27" s="132">
-        <v>0</v>
-      </c>
-      <c r="S27" s="132">
-        <v>500000</v>
-      </c>
-      <c r="T27" s="132"/>
-      <c r="U27" s="128">
-        <f t="shared" ref="U27:U35" si="6">P27-Q27-R27-S27-T27</f>
-        <v>2111415</v>
-      </c>
-      <c r="V27" s="138"/>
-      <c r="W27" s="138"/>
-      <c r="X27" s="141"/>
-      <c r="Y27" s="142"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="135"/>
-    </row>
-    <row r="28" spans="1:30" s="68" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="128"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131">
-        <v>15</v>
-      </c>
-      <c r="H28" s="131">
-        <v>5000</v>
-      </c>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="132">
-        <f t="shared" ref="P28:P35" si="7">SUM(I28:O28)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="132"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="128">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="141"/>
-      <c r="Y28" s="142"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-    </row>
-    <row r="29" spans="1:30" s="68" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="128">
-        <v>2</v>
-      </c>
-      <c r="B29" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="133" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133">
-        <v>26</v>
-      </c>
-      <c r="F29" s="134">
-        <v>40000</v>
-      </c>
-      <c r="G29" s="134">
-        <v>125</v>
-      </c>
-      <c r="H29" s="132">
-        <v>4000</v>
-      </c>
-      <c r="I29" s="132">
-        <f>G29/E25*F25</f>
-        <v>1562500</v>
-      </c>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132">
-        <f t="shared" ref="K29:K36" si="8">E29*F29</f>
-        <v>1040000</v>
-      </c>
-      <c r="L29" s="132">
-        <v>200000</v>
-      </c>
-      <c r="M29" s="132">
-        <f>G29*H29+G30*H30</f>
-        <v>585000</v>
-      </c>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132">
-        <v>0</v>
-      </c>
-      <c r="P29" s="132">
-        <f t="shared" si="7"/>
-        <v>3387500</v>
-      </c>
-      <c r="Q29" s="132">
-        <v>55585</v>
-      </c>
-      <c r="R29" s="132">
-        <v>0</v>
-      </c>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
-      <c r="U29" s="128">
-        <f t="shared" si="6"/>
-        <v>3331915</v>
-      </c>
-      <c r="V29" s="138"/>
-      <c r="W29" s="138"/>
-      <c r="X29" s="141"/>
-      <c r="Y29" s="142"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="135"/>
-    </row>
-    <row r="30" spans="1:30" s="68" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="128"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132">
-        <v>17</v>
-      </c>
-      <c r="H30" s="132">
-        <v>5000</v>
-      </c>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="132">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="132"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="128">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="138"/>
-      <c r="W30" s="138"/>
-      <c r="X30" s="141"/>
-      <c r="Y30" s="142"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="135"/>
-    </row>
-    <row r="31" spans="1:30" s="68" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="128">
-        <v>3</v>
-      </c>
-      <c r="B31" s="128" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128">
-        <v>25</v>
-      </c>
-      <c r="F31" s="132">
-        <v>40000</v>
-      </c>
-      <c r="G31" s="132">
-        <v>97</v>
-      </c>
-      <c r="H31" s="132">
-        <v>3500</v>
-      </c>
-      <c r="I31" s="132">
-        <f>G31/E25*F25</f>
+      <c r="I30" s="129">
+        <f>G30/E24*F24</f>
         <v>1212500</v>
       </c>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132">
+      <c r="J30" s="129"/>
+      <c r="K30" s="129">
         <f t="shared" si="8"/>
         <v>1000000</v>
       </c>
-      <c r="L31" s="132">
+      <c r="L30" s="129">
         <v>200000</v>
       </c>
-      <c r="M31" s="132">
-        <f>G31*H31+G32*H32</f>
+      <c r="M30" s="129">
+        <f>G30*H30+G31*H31</f>
         <v>354500</v>
       </c>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132">
-        <v>0</v>
-      </c>
-      <c r="P31" s="132">
+      <c r="N30" s="129"/>
+      <c r="O30" s="129">
+        <v>0</v>
+      </c>
+      <c r="P30" s="129">
+        <f t="shared" si="9"/>
+        <v>2767000</v>
+      </c>
+      <c r="Q30" s="129">
+        <v>55585</v>
+      </c>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129">
+        <v>200000</v>
+      </c>
+      <c r="T30" s="129"/>
+      <c r="U30" s="125">
         <f t="shared" si="7"/>
-        <v>2767000</v>
-      </c>
-      <c r="Q31" s="132">
-        <v>55585</v>
-      </c>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132">
-        <v>200000</v>
-      </c>
-      <c r="T31" s="132"/>
-      <c r="U31" s="128">
-        <f t="shared" si="6"/>
         <v>2511415</v>
       </c>
-      <c r="V31" s="138"/>
-      <c r="W31" s="138"/>
-      <c r="X31" s="141"/>
-      <c r="Y31" s="142"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="135"/>
-    </row>
-    <row r="32" spans="1:30" s="68" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="128"/>
-      <c r="B32" s="128" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132">
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="138"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
+    </row>
+    <row r="31" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="125"/>
+      <c r="B31" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129">
         <v>3</v>
       </c>
-      <c r="H32" s="132">
+      <c r="H31" s="129">
         <v>5000</v>
       </c>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132">
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="132">
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="129"/>
+      <c r="U31" s="125">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="132"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="128">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="138"/>
-      <c r="W32" s="138"/>
-      <c r="X32" s="141"/>
-      <c r="Y32" s="142"/>
-      <c r="Z32" s="140"/>
-      <c r="AA32" s="140"/>
-      <c r="AB32" s="140"/>
-      <c r="AC32" s="127"/>
-    </row>
-    <row r="33" spans="1:28" s="68" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="128">
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="138"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="124"/>
+    </row>
+    <row r="32" spans="1:30" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="125">
         <v>4</v>
       </c>
-      <c r="B33" s="128" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128">
+      <c r="B32" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125">
         <v>26</v>
       </c>
-      <c r="F33" s="132">
+      <c r="F32" s="129">
         <v>40000</v>
       </c>
-      <c r="G33" s="132">
+      <c r="G32" s="129">
         <v>80</v>
       </c>
-      <c r="H33" s="132">
+      <c r="H32" s="129">
         <v>3500</v>
       </c>
-      <c r="I33" s="132">
-        <f>G33/E25*F25</f>
+      <c r="I32" s="129">
+        <f>G32/E24*F24</f>
         <v>1000000</v>
       </c>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132">
+      <c r="J32" s="129"/>
+      <c r="K32" s="129">
         <f t="shared" si="8"/>
         <v>1040000</v>
       </c>
-      <c r="L33" s="132">
+      <c r="L32" s="129">
         <v>200000</v>
       </c>
-      <c r="M33" s="132">
-        <f>G33*H33+G34*H34</f>
+      <c r="M32" s="129">
+        <f>G32*H32+G33*H33</f>
         <v>345000</v>
       </c>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132">
-        <v>0</v>
-      </c>
-      <c r="P33" s="132">
+      <c r="N32" s="129"/>
+      <c r="O32" s="129">
+        <v>0</v>
+      </c>
+      <c r="P32" s="129">
+        <f t="shared" si="9"/>
+        <v>2585000</v>
+      </c>
+      <c r="Q32" s="129">
+        <v>55585</v>
+      </c>
+      <c r="R32" s="129"/>
+      <c r="S32" s="129">
+        <v>300000</v>
+      </c>
+      <c r="T32" s="129"/>
+      <c r="U32" s="125">
         <f t="shared" si="7"/>
-        <v>2585000</v>
-      </c>
-      <c r="Q33" s="132">
-        <v>55585</v>
-      </c>
-      <c r="R33" s="132"/>
-      <c r="S33" s="132">
-        <v>300000</v>
-      </c>
-      <c r="T33" s="132"/>
-      <c r="U33" s="128">
-        <f t="shared" si="6"/>
         <v>2229415</v>
       </c>
-      <c r="V33" s="138"/>
-      <c r="W33" s="138"/>
-      <c r="X33" s="141"/>
-      <c r="Y33" s="142"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="135"/>
-    </row>
-    <row r="34" spans="1:28" s="68" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="128"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132">
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="138"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
+    </row>
+    <row r="33" spans="1:28" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="125"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129">
         <v>13</v>
       </c>
-      <c r="H34" s="132">
+      <c r="H33" s="129">
         <v>5000</v>
       </c>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132">
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="132"/>
-      <c r="P34" s="132">
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="125">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="132"/>
-      <c r="S34" s="132"/>
-      <c r="T34" s="132"/>
-      <c r="U34" s="128">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="138"/>
-      <c r="W34" s="138"/>
-      <c r="X34" s="141"/>
-      <c r="Y34" s="142"/>
-      <c r="Z34" s="135"/>
-      <c r="AA34" s="135"/>
-      <c r="AB34" s="135"/>
-    </row>
-    <row r="35" spans="1:28" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="128">
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="138"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
+    </row>
+    <row r="34" spans="1:28" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="125">
         <v>5</v>
       </c>
-      <c r="B35" s="128" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128">
+      <c r="B34" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125">
         <v>27</v>
       </c>
-      <c r="F35" s="132">
+      <c r="F34" s="129">
         <v>40000</v>
       </c>
-      <c r="G35" s="132">
+      <c r="G34" s="129">
         <v>96</v>
       </c>
-      <c r="H35" s="132">
+      <c r="H34" s="129">
         <v>3000</v>
       </c>
-      <c r="I35" s="132">
-        <f>G35/E25*F25</f>
+      <c r="I34" s="129">
+        <f>G34/E24*F24</f>
         <v>1200000</v>
       </c>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132">
+      <c r="J34" s="129"/>
+      <c r="K34" s="129">
         <f t="shared" si="8"/>
         <v>1080000</v>
       </c>
-      <c r="L35" s="132">
+      <c r="L34" s="129">
         <v>200000</v>
       </c>
-      <c r="M35" s="132">
-        <f>G35*H35+G36*H36</f>
+      <c r="M34" s="129">
+        <f>G34*H34+G35*H35</f>
         <v>383000</v>
       </c>
-      <c r="N35" s="132"/>
-      <c r="O35" s="132">
+      <c r="N34" s="129"/>
+      <c r="O34" s="129">
         <v>100000</v>
       </c>
-      <c r="P35" s="132">
-        <f t="shared" si="7"/>
+      <c r="P34" s="129">
+        <f>SUM(I34:O34)</f>
         <v>2963000</v>
       </c>
-      <c r="Q35" s="132">
-        <v>0</v>
-      </c>
-      <c r="R35" s="132"/>
-      <c r="S35" s="132">
+      <c r="Q34" s="129">
+        <v>0</v>
+      </c>
+      <c r="R34" s="129"/>
+      <c r="S34" s="129">
         <v>300000</v>
       </c>
-      <c r="T35" s="132"/>
-      <c r="U35" s="128">
-        <f t="shared" si="6"/>
+      <c r="T34" s="129"/>
+      <c r="U34" s="129">
+        <f>P34-Q34-R34-S34-T34</f>
         <v>2663000</v>
       </c>
-      <c r="V35" s="138"/>
-      <c r="W35" s="138"/>
+      <c r="V34" s="135"/>
+      <c r="W34" s="135"/>
+      <c r="X34" s="132"/>
+      <c r="Y34" s="132"/>
+      <c r="Z34" s="132"/>
+      <c r="AA34" s="132"/>
+      <c r="AB34" s="132"/>
+    </row>
+    <row r="35" spans="1:28" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="125"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129">
+        <v>19</v>
+      </c>
+      <c r="H35" s="129">
+        <v>5000</v>
+      </c>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="125"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="125"/>
+      <c r="V35" s="135"/>
+      <c r="W35" s="135"/>
       <c r="X35" s="135"/>
       <c r="Y35" s="135"/>
-      <c r="Z35" s="135"/>
-      <c r="AA35" s="135"/>
-      <c r="AB35" s="135"/>
-    </row>
-    <row r="36" spans="1:28" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="128"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132">
-        <v>19</v>
-      </c>
-      <c r="H36" s="132">
-        <v>5000</v>
-      </c>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="132">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="132"/>
-      <c r="P36" s="132"/>
-      <c r="Q36" s="132"/>
-      <c r="R36" s="132"/>
-      <c r="S36" s="128"/>
-      <c r="T36" s="132"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="138"/>
-      <c r="W36" s="138"/>
-      <c r="X36" s="138"/>
-      <c r="Y36" s="138"/>
-      <c r="Z36" s="135"/>
-      <c r="AA36" s="135"/>
-      <c r="AB36" s="135"/>
-    </row>
-    <row r="37" spans="1:28" s="68" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="V37" s="138"/>
-      <c r="W37" s="138"/>
-      <c r="X37" s="135"/>
-      <c r="Y37" s="135"/>
-      <c r="Z37" s="135"/>
-      <c r="AA37" s="135"/>
-      <c r="AB37" s="135"/>
+      <c r="Z35" s="132"/>
+      <c r="AA35" s="132"/>
+      <c r="AB35" s="132"/>
+    </row>
+    <row r="36" spans="1:28" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
+      <c r="V36" s="135"/>
+      <c r="W36" s="135"/>
+      <c r="X36" s="132"/>
+      <c r="Y36" s="132"/>
+      <c r="Z36" s="132"/>
+      <c r="AA36" s="132"/>
+      <c r="AB36" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/GAJI NOV 2025.xlsx
+++ b/GAJI NOV 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Coolyeah\Udemy\vercel app\laporanGaji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400BB53F-229F-48CF-93DA-760A5FE5D3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB36A2D4-6B9C-4171-9DED-FA6E9A2F83BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{D61370B7-BC64-4536-9509-01BE739F5398}"/>
+    <workbookView xWindow="3540" yWindow="2205" windowWidth="21600" windowHeight="11280" activeTab="2" xr2:uid="{D61370B7-BC64-4536-9509-01BE739F5398}"/>
   </bookViews>
   <sheets>
     <sheet name="BGR" sheetId="1" r:id="rId1"/>
@@ -948,7 +948,7 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,9 +1260,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1635,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585DA2A2-1318-457D-93B3-C75C4FE239D7}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,7 +3343,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4462,7 +4459,7 @@
         <f>SUM(Q21:Q23)</f>
         <v>800000</v>
       </c>
-      <c r="R24" s="143">
+      <c r="R24" s="92">
         <f>O24-P24-Q24</f>
         <v>9210040</v>
       </c>
@@ -4827,8 +4824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EC4FE7-41C6-4EC6-9A2C-ED5198A12057}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4837,11 +4834,9 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
     <col min="13" max="14" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5003,7 +4998,7 @@
         <v>600000</v>
       </c>
       <c r="M5" s="69">
-        <f>G5*H5</f>
+        <f t="shared" ref="M5:M9" si="0">G5*H5</f>
         <v>1395000</v>
       </c>
       <c r="N5" s="69"/>
@@ -5066,7 +5061,7 @@
         <v>400000</v>
       </c>
       <c r="M6" s="69">
-        <f>G6*H6</f>
+        <f t="shared" si="0"/>
         <v>1347000</v>
       </c>
       <c r="N6" s="69"/>
@@ -5074,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="69">
-        <f>SUM(I6:O6)</f>
+        <f t="shared" ref="P6:P15" si="1">SUM(I6:O6)</f>
         <v>3822000</v>
       </c>
       <c r="Q6" s="69">
@@ -5127,7 +5122,7 @@
         <v>400000</v>
       </c>
       <c r="M7" s="69">
-        <f t="shared" ref="M7:M9" si="0">G7*H7</f>
+        <f t="shared" si="0"/>
         <v>1446000</v>
       </c>
       <c r="N7" s="69"/>
@@ -5135,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="69">
-        <f>SUM(I7:O7)</f>
+        <f t="shared" si="1"/>
         <v>3946000</v>
       </c>
       <c r="Q7" s="69">
@@ -5147,7 +5142,7 @@
       <c r="S7" s="69"/>
       <c r="T7" s="69"/>
       <c r="U7" s="68">
-        <f t="shared" ref="U7:U22" si="1">P7-Q7-R7-S7-T7</f>
+        <f t="shared" ref="U7:U22" si="2">P7-Q7-R7-S7-T7</f>
         <v>3776141</v>
       </c>
       <c r="V7" s="69"/>
@@ -5196,7 +5191,7 @@
         <v>200000</v>
       </c>
       <c r="P8" s="93">
-        <f t="shared" ref="P8:P15" si="2">SUM(I8:O8)</f>
+        <f t="shared" si="1"/>
         <v>4471000</v>
       </c>
       <c r="Q8" s="93"/>
@@ -5208,7 +5203,7 @@
         <v>100000</v>
       </c>
       <c r="U8" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4256726</v>
       </c>
       <c r="V8" s="93"/>
@@ -5260,7 +5255,7 @@
         <v>100000</v>
       </c>
       <c r="P9" s="69">
-        <f>SUM(I9:O9)</f>
+        <f t="shared" si="1"/>
         <v>4521000</v>
       </c>
       <c r="Q9" s="69"/>
@@ -5272,7 +5267,7 @@
         <v>10000</v>
       </c>
       <c r="U9" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4011000</v>
       </c>
       <c r="V9" s="69"/>
@@ -5306,14 +5301,14 @@
         <v>200000</v>
       </c>
       <c r="K10" s="69">
-        <f>E10*F10</f>
+        <f t="shared" ref="K10:K22" si="3">E10*F10</f>
         <v>650000</v>
       </c>
       <c r="L10" s="69">
         <v>200000</v>
       </c>
       <c r="M10" s="69">
-        <f t="shared" ref="M10:M14" si="3">G10*H10</f>
+        <f t="shared" ref="M10:M14" si="4">G10*H10</f>
         <v>697500</v>
       </c>
       <c r="N10" s="69"/>
@@ -5321,7 +5316,7 @@
         <v>100000</v>
       </c>
       <c r="P10" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2947500</v>
       </c>
       <c r="Q10" s="69"/>
@@ -5333,7 +5328,7 @@
         <v>20000</v>
       </c>
       <c r="U10" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2627500</v>
       </c>
       <c r="V10" s="69"/>
@@ -5367,14 +5362,14 @@
         <v>200000</v>
       </c>
       <c r="K11" s="69">
-        <f t="shared" ref="K11:K22" si="4">E11*F11</f>
+        <f t="shared" si="3"/>
         <v>700000</v>
       </c>
       <c r="L11" s="69">
         <v>250000</v>
       </c>
       <c r="M11" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>754500</v>
       </c>
       <c r="N11" s="69"/>
@@ -5382,7 +5377,7 @@
         <v>100000</v>
       </c>
       <c r="P11" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3104500</v>
       </c>
       <c r="Q11" s="69">
@@ -5396,7 +5391,7 @@
         <v>110000</v>
       </c>
       <c r="U11" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2994500</v>
       </c>
       <c r="V11" s="69"/>
@@ -5430,14 +5425,14 @@
         <v>200000</v>
       </c>
       <c r="K12" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>675000</v>
       </c>
       <c r="L12" s="69">
         <v>250000</v>
       </c>
       <c r="M12" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1006000</v>
       </c>
       <c r="N12" s="69"/>
@@ -5445,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3231000</v>
       </c>
       <c r="Q12" s="69">
@@ -5459,7 +5454,7 @@
         <v>60000</v>
       </c>
       <c r="U12" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3115415</v>
       </c>
     </row>
@@ -5495,14 +5490,14 @@
         <v>200000</v>
       </c>
       <c r="K13" s="69">
-        <f>E13*F13</f>
+        <f t="shared" si="3"/>
         <v>560000</v>
       </c>
       <c r="L13" s="69">
         <v>0</v>
       </c>
       <c r="M13" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>482000</v>
       </c>
       <c r="N13" s="69"/>
@@ -5510,7 +5505,7 @@
         <v>100000</v>
       </c>
       <c r="P13" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2442000</v>
       </c>
       <c r="Q13" s="69"/>
@@ -5520,7 +5515,7 @@
       </c>
       <c r="T13" s="69"/>
       <c r="U13" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2242000</v>
       </c>
       <c r="V13" s="122">
@@ -5556,14 +5551,14 @@
         <v>200000</v>
       </c>
       <c r="K14" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>675000</v>
       </c>
       <c r="L14" s="69">
         <v>600000</v>
       </c>
       <c r="M14" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1446000</v>
       </c>
       <c r="N14" s="69">
@@ -5573,7 +5568,7 @@
         <v>100000</v>
       </c>
       <c r="P14" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5221000</v>
       </c>
       <c r="Q14" s="69"/>
@@ -5585,7 +5580,7 @@
         <v>45000</v>
       </c>
       <c r="U14" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4676000</v>
       </c>
     </row>
@@ -5621,14 +5616,14 @@
         <v>200000</v>
       </c>
       <c r="K15" s="134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>675000</v>
       </c>
       <c r="L15" s="134">
         <v>100000</v>
       </c>
       <c r="M15" s="134">
-        <f t="shared" ref="M15:M19" si="5">G15*H15</f>
+        <f t="shared" ref="M15:M20" si="5">G15*H15</f>
         <v>384000</v>
       </c>
       <c r="N15" s="134"/>
@@ -5636,7 +5631,7 @@
         <v>100000</v>
       </c>
       <c r="P15" s="134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2459000</v>
       </c>
       <c r="Q15" s="134"/>
@@ -5644,7 +5639,7 @@
       <c r="S15" s="134"/>
       <c r="T15" s="134"/>
       <c r="U15" s="132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2459000</v>
       </c>
       <c r="V15" s="136">
@@ -5681,7 +5676,7 @@
         <v>200000</v>
       </c>
       <c r="K16" s="134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>675000</v>
       </c>
       <c r="L16" s="134">
@@ -5704,7 +5699,7 @@
       <c r="S16" s="134"/>
       <c r="T16" s="134"/>
       <c r="U16" s="132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2459000</v>
       </c>
       <c r="V16" s="136"/>
@@ -5739,7 +5734,7 @@
         <v>200000</v>
       </c>
       <c r="K17" s="93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>675000</v>
       </c>
       <c r="L17" s="93">
@@ -5764,7 +5759,7 @@
         <v>30000</v>
       </c>
       <c r="U17" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3009000</v>
       </c>
       <c r="V17" s="93"/>
@@ -5802,7 +5797,7 @@
         <v>200000</v>
       </c>
       <c r="K18" s="93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>675000</v>
       </c>
       <c r="L18" s="93">
@@ -5831,7 +5826,7 @@
         <v>10000</v>
       </c>
       <c r="U18" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3655415</v>
       </c>
       <c r="V18" s="93"/>
@@ -5865,7 +5860,7 @@
         <v>200000</v>
       </c>
       <c r="K19" s="69">
-        <f>E19*F19</f>
+        <f t="shared" si="3"/>
         <v>775000</v>
       </c>
       <c r="L19" s="69">
@@ -5894,7 +5889,7 @@
         <v>15000</v>
       </c>
       <c r="U19" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2204415</v>
       </c>
       <c r="V19" s="69"/>
@@ -5924,12 +5919,12 @@
         <v>200000</v>
       </c>
       <c r="K20" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>675000</v>
       </c>
       <c r="L20" s="69"/>
       <c r="M20" s="69">
-        <f>G20*H20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N20" s="69"/>
@@ -5947,7 +5942,7 @@
       </c>
       <c r="T20" s="69"/>
       <c r="U20" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2375000</v>
       </c>
       <c r="V20" s="135"/>
@@ -5983,7 +5978,7 @@
         <v>200000</v>
       </c>
       <c r="K21" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>675000</v>
       </c>
       <c r="L21" s="69">
@@ -6005,7 +6000,7 @@
       </c>
       <c r="T21" s="69"/>
       <c r="U21" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1875000</v>
       </c>
       <c r="V21" s="135"/>
@@ -6043,7 +6038,7 @@
         <v>200000</v>
       </c>
       <c r="K22" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>675000</v>
       </c>
       <c r="L22" s="69">
@@ -6067,7 +6062,7 @@
       <c r="S22" s="69"/>
       <c r="T22" s="69"/>
       <c r="U22" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2625000</v>
       </c>
       <c r="V22" s="135"/>
@@ -6266,7 +6261,7 @@
       </c>
       <c r="T26" s="129"/>
       <c r="U26" s="125">
-        <f t="shared" ref="U26:U33" si="7">P26-Q26-R26-S26-T26</f>
+        <f t="shared" ref="U26:U34" si="7">P26-Q26-R26-S26-T26</f>
         <v>2111415</v>
       </c>
       <c r="V26" s="135"/>
@@ -6298,7 +6293,7 @@
       <c r="N27" s="129"/>
       <c r="O27" s="129"/>
       <c r="P27" s="129">
-        <f>SUM(I27:O27)</f>
+        <f t="shared" ref="P27:P34" si="8">SUM(I27:O27)</f>
         <v>0</v>
       </c>
       <c r="Q27" s="129"/>
@@ -6346,7 +6341,7 @@
       </c>
       <c r="J28" s="129"/>
       <c r="K28" s="129">
-        <f t="shared" ref="K28:K35" si="8">E28*F28</f>
+        <f t="shared" ref="K28:K35" si="9">E28*F28</f>
         <v>1040000</v>
       </c>
       <c r="L28" s="129">
@@ -6361,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="129">
-        <f t="shared" ref="P28:P33" si="9">SUM(I28:O28)</f>
+        <f t="shared" si="8"/>
         <v>3387500</v>
       </c>
       <c r="Q28" s="129">
@@ -6400,7 +6395,7 @@
       <c r="I29" s="129"/>
       <c r="J29" s="129"/>
       <c r="K29" s="129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L29" s="129"/>
@@ -6408,7 +6403,7 @@
       <c r="N29" s="129"/>
       <c r="O29" s="129"/>
       <c r="P29" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q29" s="129"/>
@@ -6456,7 +6451,7 @@
       </c>
       <c r="J30" s="129"/>
       <c r="K30" s="129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1000000</v>
       </c>
       <c r="L30" s="129">
@@ -6471,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2767000</v>
       </c>
       <c r="Q30" s="129">
@@ -6512,7 +6507,7 @@
       <c r="I31" s="129"/>
       <c r="J31" s="129"/>
       <c r="K31" s="129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L31" s="129"/>
@@ -6520,7 +6515,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
       <c r="P31" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q31" s="129"/>
@@ -6569,7 +6564,7 @@
       </c>
       <c r="J32" s="129"/>
       <c r="K32" s="129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1040000</v>
       </c>
       <c r="L32" s="129">
@@ -6584,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2585000</v>
       </c>
       <c r="Q32" s="129">
@@ -6623,7 +6618,7 @@
       <c r="I33" s="129"/>
       <c r="J33" s="129"/>
       <c r="K33" s="129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L33" s="129"/>
@@ -6631,7 +6626,7 @@
       <c r="N33" s="129"/>
       <c r="O33" s="129"/>
       <c r="P33" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q33" s="129"/>
@@ -6679,7 +6674,7 @@
       </c>
       <c r="J34" s="129"/>
       <c r="K34" s="129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1080000</v>
       </c>
       <c r="L34" s="129">
@@ -6694,7 +6689,7 @@
         <v>100000</v>
       </c>
       <c r="P34" s="129">
-        <f>SUM(I34:O34)</f>
+        <f t="shared" si="8"/>
         <v>2963000</v>
       </c>
       <c r="Q34" s="129">
@@ -6705,8 +6700,8 @@
         <v>300000</v>
       </c>
       <c r="T34" s="129"/>
-      <c r="U34" s="129">
-        <f>P34-Q34-R34-S34-T34</f>
+      <c r="U34" s="125">
+        <f t="shared" si="7"/>
         <v>2663000</v>
       </c>
       <c r="V34" s="135"/>
@@ -6733,7 +6728,7 @@
       <c r="I35" s="129"/>
       <c r="J35" s="129"/>
       <c r="K35" s="129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L35" s="129"/>

--- a/GAJI NOV 2025.xlsx
+++ b/GAJI NOV 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Coolyeah\Udemy\vercel app\laporanGaji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB36A2D4-6B9C-4171-9DED-FA6E9A2F83BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D89960F-5B49-4A1F-9ECE-505FA156F401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="2205" windowWidth="21600" windowHeight="11280" activeTab="2" xr2:uid="{D61370B7-BC64-4536-9509-01BE739F5398}"/>
+    <workbookView xWindow="8925" yWindow="3735" windowWidth="21600" windowHeight="11280" activeTab="1" xr2:uid="{D61370B7-BC64-4536-9509-01BE739F5398}"/>
   </bookViews>
   <sheets>
     <sheet name="BGR" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="173">
   <si>
     <t>LAPORAN GAJI OKTOBER 2025</t>
   </si>
@@ -1632,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585DA2A2-1318-457D-93B3-C75C4FE239D7}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1642,7 @@
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
@@ -3340,10 +3340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DA8EA9-38B0-4D8E-92B7-3F9EF252A77B}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,178 +3485,211 @@
       <c r="T6" s="85"/>
     </row>
     <row r="7" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="84"/>
+      <c r="A7" s="72">
+        <v>1</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="68">
+        <v>1091895116</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="89">
+        <v>27</v>
+      </c>
+      <c r="F7" s="90">
+        <v>30000</v>
+      </c>
+      <c r="G7" s="55">
+        <v>546</v>
+      </c>
+      <c r="H7" s="55">
+        <v>3000</v>
+      </c>
+      <c r="I7" s="69">
+        <v>1900000</v>
+      </c>
+      <c r="J7" s="69">
+        <f t="shared" ref="J7:J16" si="0">F7*E7</f>
+        <v>810000</v>
+      </c>
+      <c r="K7" s="69">
+        <v>400000</v>
+      </c>
+      <c r="L7" s="69">
+        <v>400000</v>
+      </c>
+      <c r="M7" s="69">
+        <f>H7*G7</f>
+        <v>1638000</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="5">
+        <f t="shared" ref="O7:O19" si="1">I7+J7+K7+L7+M7+N7</f>
+        <v>5148000</v>
+      </c>
+      <c r="P7" s="5">
+        <v>179980</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>700000</v>
+      </c>
+      <c r="R7" s="92">
+        <f t="shared" ref="R7:R16" si="2">O7-P7-Q7</f>
+        <v>4268020</v>
+      </c>
       <c r="T7" s="85"/>
     </row>
     <row r="8" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A8" s="72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="68">
-        <v>1091895116</v>
+        <v>1092321481</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E8" s="89">
         <v>27</v>
       </c>
       <c r="F8" s="90">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G8" s="55">
         <v>546</v>
       </c>
       <c r="H8" s="55">
-        <v>3000</v>
-      </c>
-      <c r="I8" s="69">
-        <v>1900000</v>
-      </c>
-      <c r="J8" s="69">
-        <f t="shared" ref="J8:J17" si="0">F8*E8</f>
-        <v>810000</v>
-      </c>
-      <c r="K8" s="69">
+        <v>3500</v>
+      </c>
+      <c r="I8" s="93">
+        <v>2000000</v>
+      </c>
+      <c r="J8" s="93">
+        <f t="shared" si="0"/>
+        <v>945000</v>
+      </c>
+      <c r="K8" s="93">
+        <v>500000</v>
+      </c>
+      <c r="L8" s="93">
         <v>400000</v>
       </c>
-      <c r="L8" s="69">
-        <v>400000</v>
-      </c>
-      <c r="M8" s="69">
+      <c r="M8" s="93">
         <f>H8*G8</f>
-        <v>1638000</v>
-      </c>
-      <c r="N8" s="55"/>
+        <v>1911000</v>
+      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="5">
-        <f t="shared" ref="O8:O20" si="1">I8+J8+K8+L8+M8+N8</f>
-        <v>5148000</v>
+        <f t="shared" si="1"/>
+        <v>5756000</v>
       </c>
       <c r="P8" s="5">
-        <v>179980</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>700000</v>
+        <v>279980</v>
+      </c>
+      <c r="Q8" s="55">
+        <v>0</v>
       </c>
       <c r="R8" s="92">
-        <f t="shared" ref="R8:R17" si="2">O8-P8-Q8</f>
-        <v>4268020</v>
+        <f t="shared" si="2"/>
+        <v>5476020</v>
       </c>
       <c r="T8" s="85"/>
     </row>
     <row r="9" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A9" s="72">
-        <v>2</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="68">
-        <v>1092321481</v>
-      </c>
-      <c r="D9" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="89">
-        <v>27</v>
-      </c>
-      <c r="F9" s="90">
-        <v>35000</v>
-      </c>
-      <c r="G9" s="55">
-        <v>546</v>
-      </c>
-      <c r="H9" s="55">
-        <v>3500</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="65">
+        <v>1092291981</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="94">
+        <v>26</v>
+      </c>
+      <c r="F9" s="96">
+        <v>27000</v>
+      </c>
+      <c r="G9" s="93">
+        <v>526</v>
+      </c>
+      <c r="H9" s="93">
+        <v>2000</v>
       </c>
       <c r="I9" s="93">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J9" s="93">
         <f t="shared" si="0"/>
-        <v>945000</v>
+        <v>702000</v>
       </c>
       <c r="K9" s="93">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="L9" s="93">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="M9" s="93">
         <f>H9*G9</f>
-        <v>1911000</v>
+        <v>1052000</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5">
         <f t="shared" si="1"/>
-        <v>5756000</v>
-      </c>
-      <c r="P9" s="5">
-        <v>279980</v>
-      </c>
-      <c r="Q9" s="55">
+        <v>3854000</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5">
         <v>0</v>
       </c>
       <c r="R9" s="92">
         <f t="shared" si="2"/>
-        <v>5476020</v>
-      </c>
-      <c r="T9" s="85"/>
+        <v>3854000</v>
+      </c>
+      <c r="T9" s="95"/>
     </row>
     <row r="10" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A10" s="72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" s="65">
-        <v>1092291981</v>
+        <v>1092338970</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10" s="94">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="96">
         <v>27000</v>
       </c>
       <c r="G10" s="93">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="H10" s="93">
         <v>2000</v>
       </c>
       <c r="I10" s="93">
-        <v>1500000</v>
+        <v>1400000</v>
       </c>
       <c r="J10" s="93">
         <f t="shared" si="0"/>
-        <v>702000</v>
+        <v>729000</v>
       </c>
       <c r="K10" s="93">
         <v>300000</v>
@@ -3665,36 +3698,34 @@
         <v>300000</v>
       </c>
       <c r="M10" s="93">
-        <f>H10*G10</f>
-        <v>1052000</v>
+        <f t="shared" ref="M10" si="3">H10*G10</f>
+        <v>1092000</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5">
         <f t="shared" si="1"/>
-        <v>3854000</v>
+        <v>3821000</v>
       </c>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
+      <c r="Q10" s="5"/>
       <c r="R10" s="92">
         <f t="shared" si="2"/>
-        <v>3854000</v>
+        <v>3821000</v>
       </c>
       <c r="T10" s="95"/>
     </row>
     <row r="11" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C11" s="65">
-        <v>1092338970</v>
+        <v>1092408218</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11" s="94">
         <v>27</v>
@@ -3709,7 +3740,7 @@
         <v>2000</v>
       </c>
       <c r="I11" s="93">
-        <v>1400000</v>
+        <v>1500000</v>
       </c>
       <c r="J11" s="93">
         <f t="shared" si="0"/>
@@ -3719,37 +3750,41 @@
         <v>300000</v>
       </c>
       <c r="L11" s="93">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="M11" s="93">
-        <f t="shared" ref="M11" si="3">H11*G11</f>
+        <f>H11*G11</f>
         <v>1092000</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5">
         <f t="shared" si="1"/>
-        <v>3821000</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+        <v>4021000</v>
+      </c>
+      <c r="P11" s="5">
+        <v>179980</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
       <c r="R11" s="92">
         <f t="shared" si="2"/>
-        <v>3821000</v>
-      </c>
-      <c r="T11" s="95"/>
+        <v>3841020</v>
+      </c>
+      <c r="T11" s="92"/>
     </row>
     <row r="12" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C12" s="65">
-        <v>1092408218</v>
+        <v>5765512724</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E12" s="94">
         <v>27</v>
@@ -3761,7 +3796,7 @@
         <v>546</v>
       </c>
       <c r="H12" s="93">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I12" s="93">
         <v>1500000</v>
@@ -3774,16 +3809,16 @@
         <v>300000</v>
       </c>
       <c r="L12" s="93">
-        <v>400000</v>
+        <v>450000</v>
       </c>
       <c r="M12" s="93">
         <f>H12*G12</f>
-        <v>1092000</v>
+        <v>819000</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5">
         <f t="shared" si="1"/>
-        <v>4021000</v>
+        <v>3798000</v>
       </c>
       <c r="P12" s="5">
         <v>179980</v>
@@ -3793,159 +3828,159 @@
       </c>
       <c r="R12" s="92">
         <f t="shared" si="2"/>
-        <v>3841020</v>
+        <v>3618020</v>
       </c>
       <c r="T12" s="92"/>
     </row>
     <row r="13" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A13" s="72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C13" s="65">
-        <v>5765512724</v>
+        <v>8730573911</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E13" s="94">
         <v>27</v>
       </c>
       <c r="F13" s="96">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G13" s="93">
         <v>546</v>
       </c>
       <c r="H13" s="93">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I13" s="93">
         <v>1500000</v>
       </c>
       <c r="J13" s="93">
         <f t="shared" si="0"/>
-        <v>729000</v>
+        <v>810000</v>
       </c>
       <c r="K13" s="93">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="L13" s="93">
         <v>450000</v>
       </c>
       <c r="M13" s="93">
         <f>H13*G13</f>
-        <v>819000</v>
-      </c>
-      <c r="N13" s="5"/>
+        <v>1092000</v>
+      </c>
+      <c r="N13" s="5">
+        <v>550000</v>
+      </c>
       <c r="O13" s="5">
-        <f t="shared" si="1"/>
-        <v>3798000</v>
-      </c>
-      <c r="P13" s="5">
-        <v>179980</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>0</v>
+        <f>I13+J13+K13+L13+M13+N13</f>
+        <v>4902000</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="97">
+        <v>400000</v>
       </c>
       <c r="R13" s="92">
         <f t="shared" si="2"/>
-        <v>3618020</v>
+        <v>4502000</v>
       </c>
       <c r="T13" s="92"/>
     </row>
     <row r="14" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="72">
-        <v>7</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="65">
-        <v>8730573911</v>
-      </c>
-      <c r="D14" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="94">
+        <v>8</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="68">
+        <v>1091894454</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="110">
         <v>27</v>
       </c>
-      <c r="F14" s="96">
-        <v>30000</v>
-      </c>
-      <c r="G14" s="93">
+      <c r="F14" s="90">
+        <v>27000</v>
+      </c>
+      <c r="G14" s="5">
         <v>546</v>
       </c>
-      <c r="H14" s="93">
-        <v>2000</v>
-      </c>
-      <c r="I14" s="93">
-        <v>1500000</v>
+      <c r="H14" s="91">
+        <v>1500</v>
+      </c>
+      <c r="I14" s="69">
+        <v>1200000</v>
       </c>
       <c r="J14" s="93">
         <f t="shared" si="0"/>
-        <v>810000</v>
-      </c>
-      <c r="K14" s="93">
-        <v>500000</v>
-      </c>
-      <c r="L14" s="93">
-        <v>450000</v>
+        <v>729000</v>
+      </c>
+      <c r="K14" s="91">
+        <v>300000</v>
+      </c>
+      <c r="L14" s="91">
+        <v>300000</v>
       </c>
       <c r="M14" s="93">
-        <f>H14*G14</f>
-        <v>1092000</v>
-      </c>
-      <c r="N14" s="5">
-        <v>550000</v>
+        <f t="shared" ref="M14" si="4">H14*G14</f>
+        <v>819000</v>
+      </c>
+      <c r="N14" s="69">
+        <v>300000</v>
       </c>
       <c r="O14" s="5">
-        <f>I14+J14+K14+L14+M14+N14</f>
-        <v>4902000</v>
+        <f t="shared" si="1"/>
+        <v>3648000</v>
       </c>
       <c r="P14" s="5"/>
-      <c r="Q14" s="97">
-        <v>400000</v>
+      <c r="Q14" s="5">
+        <v>0</v>
       </c>
       <c r="R14" s="92">
         <f t="shared" si="2"/>
-        <v>4502000</v>
+        <v>3648000</v>
       </c>
       <c r="T14" s="92"/>
     </row>
     <row r="15" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A15" s="72">
-        <v>8</v>
-      </c>
-      <c r="B15" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="68">
-        <v>1091894454</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="110">
+        <v>9</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="99">
+        <v>1091894497</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="111">
         <v>27</v>
       </c>
       <c r="F15" s="90">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G15" s="5">
         <v>546</v>
       </c>
       <c r="H15" s="91">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="69">
-        <v>1200000</v>
+        <v>1900000</v>
       </c>
       <c r="J15" s="93">
         <f t="shared" si="0"/>
-        <v>729000</v>
+        <v>810000</v>
       </c>
       <c r="K15" s="91">
         <v>300000</v>
@@ -3954,150 +3989,150 @@
         <v>300000</v>
       </c>
       <c r="M15" s="93">
-        <f t="shared" ref="M15" si="4">H15*G15</f>
-        <v>819000</v>
+        <v>750000</v>
       </c>
       <c r="N15" s="69">
-        <v>300000</v>
+        <v>375000</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="1"/>
-        <v>3648000</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5">
-        <v>0</v>
+        <f>I15+J15+K15+L15+M15+N15</f>
+        <v>4435000</v>
+      </c>
+      <c r="P15" s="5">
+        <v>279980</v>
+      </c>
+      <c r="Q15" s="100">
+        <v>500000</v>
       </c>
       <c r="R15" s="92">
         <f t="shared" si="2"/>
-        <v>3648000</v>
+        <v>3655020</v>
       </c>
       <c r="T15" s="92"/>
     </row>
     <row r="16" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C16" s="99">
-        <v>1091894497</v>
+        <v>1093080738</v>
       </c>
       <c r="D16" s="99" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" s="111">
         <v>27</v>
       </c>
       <c r="F16" s="90">
-        <v>30000</v>
+        <v>27500</v>
       </c>
       <c r="G16" s="5">
         <v>546</v>
       </c>
       <c r="H16" s="91">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="I16" s="69">
-        <v>1900000</v>
+        <v>1550000</v>
       </c>
       <c r="J16" s="93">
         <f t="shared" si="0"/>
-        <v>810000</v>
+        <v>742500</v>
       </c>
       <c r="K16" s="91">
         <v>300000</v>
       </c>
       <c r="L16" s="91">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="M16" s="93">
-        <v>750000</v>
-      </c>
-      <c r="N16" s="69">
-        <v>375000</v>
-      </c>
+        <f>G16*H16</f>
+        <v>709800</v>
+      </c>
+      <c r="N16" s="69"/>
       <c r="O16" s="5">
         <f>I16+J16+K16+L16+M16+N16</f>
-        <v>4435000</v>
-      </c>
-      <c r="P16" s="5">
-        <v>279980</v>
-      </c>
-      <c r="Q16" s="100">
-        <v>500000</v>
-      </c>
+        <v>3402300</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
       <c r="R16" s="92">
         <f t="shared" si="2"/>
-        <v>3655020</v>
+        <v>3402300</v>
       </c>
       <c r="T16" s="92"/>
     </row>
-    <row r="17" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="72">
-        <v>10</v>
-      </c>
-      <c r="B17" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="99">
-        <v>1093080738</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="111">
+        <v>11</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="65">
+        <v>3431610050</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="94">
         <v>27</v>
       </c>
-      <c r="F17" s="90">
-        <v>27500</v>
+      <c r="F17" s="96">
+        <v>30000</v>
       </c>
       <c r="G17" s="5">
         <v>546</v>
       </c>
-      <c r="H17" s="91">
-        <v>1300</v>
-      </c>
-      <c r="I17" s="69">
-        <v>1550000</v>
+      <c r="H17" s="5">
+        <v>3000</v>
+      </c>
+      <c r="I17" s="93">
+        <v>1900000</v>
       </c>
       <c r="J17" s="93">
-        <f t="shared" si="0"/>
-        <v>742500</v>
-      </c>
-      <c r="K17" s="91">
+        <f>F17*E17</f>
+        <v>810000</v>
+      </c>
+      <c r="K17" s="93">
         <v>300000</v>
       </c>
-      <c r="L17" s="91">
-        <v>100000</v>
+      <c r="L17" s="93">
+        <v>400000</v>
       </c>
       <c r="M17" s="93">
-        <f>G17*H17</f>
-        <v>709800</v>
-      </c>
-      <c r="N17" s="69"/>
+        <f>H17*G17</f>
+        <v>1638000</v>
+      </c>
+      <c r="N17" s="5"/>
       <c r="O17" s="5">
         <f>I17+J17+K17+L17+M17+N17</f>
-        <v>3402300</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+        <v>5048000</v>
+      </c>
+      <c r="P17" s="5">
+        <v>279980</v>
+      </c>
+      <c r="Q17" s="100">
+        <v>850000</v>
+      </c>
       <c r="R17" s="92">
-        <f t="shared" si="2"/>
-        <v>3402300</v>
-      </c>
-      <c r="T17" s="92"/>
-    </row>
-    <row r="18" spans="1:20" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>O17-P17-Q17</f>
+        <v>3918020</v>
+      </c>
+      <c r="T17" s="95"/>
+    </row>
+    <row r="18" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C18" s="65">
-        <v>3431610050</v>
+        <v>1091894594</v>
       </c>
       <c r="D18" s="94" t="s">
         <v>38</v>
@@ -4106,397 +4141,401 @@
         <v>27</v>
       </c>
       <c r="F18" s="96">
-        <v>30000</v>
-      </c>
-      <c r="G18" s="5">
+        <v>27000</v>
+      </c>
+      <c r="G18" s="93">
         <v>546</v>
       </c>
-      <c r="H18" s="5">
-        <v>3000</v>
+      <c r="H18" s="93">
+        <v>2000</v>
       </c>
       <c r="I18" s="93">
-        <v>1900000</v>
+        <v>1400000</v>
       </c>
       <c r="J18" s="93">
         <f>F18*E18</f>
-        <v>810000</v>
+        <v>729000</v>
       </c>
       <c r="K18" s="93">
+        <v>200000</v>
+      </c>
+      <c r="L18" s="93">
         <v>300000</v>
-      </c>
-      <c r="L18" s="93">
-        <v>400000</v>
       </c>
       <c r="M18" s="93">
         <f>H18*G18</f>
-        <v>1638000</v>
+        <v>1092000</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5">
         <f>I18+J18+K18+L18+M18+N18</f>
-        <v>5048000</v>
-      </c>
-      <c r="P18" s="5">
-        <v>279980</v>
-      </c>
-      <c r="Q18" s="100">
-        <v>850000</v>
+        <v>3721000</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="97">
+        <v>700000</v>
       </c>
       <c r="R18" s="92">
-        <f>O18-P18-Q18</f>
-        <v>3918020</v>
-      </c>
-      <c r="T18" s="95"/>
+        <f t="shared" ref="R18:R19" si="5">O18-P18-Q18</f>
+        <v>3021000</v>
+      </c>
+      <c r="T18" s="101"/>
     </row>
     <row r="19" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="72">
-        <v>12</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="65">
-        <v>1091894594</v>
-      </c>
-      <c r="D19" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="89">
+        <v>3780462191</v>
+      </c>
+      <c r="D19" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="94">
-        <v>27</v>
-      </c>
-      <c r="F19" s="96">
-        <v>27000</v>
-      </c>
-      <c r="G19" s="93">
-        <v>546</v>
-      </c>
-      <c r="H19" s="93">
-        <v>2000</v>
-      </c>
-      <c r="I19" s="93">
-        <v>1400000</v>
+      <c r="E19" s="111">
+        <v>23</v>
+      </c>
+      <c r="F19" s="90">
+        <v>25000</v>
+      </c>
+      <c r="G19" s="5">
+        <v>466</v>
+      </c>
+      <c r="H19" s="91">
+        <v>1750</v>
+      </c>
+      <c r="I19" s="69">
+        <v>1200000</v>
       </c>
       <c r="J19" s="93">
-        <f>F19*E19</f>
-        <v>729000</v>
-      </c>
-      <c r="K19" s="93">
+        <f t="shared" ref="J19" si="6">F19*E19</f>
+        <v>575000</v>
+      </c>
+      <c r="K19" s="91">
         <v>200000</v>
       </c>
-      <c r="L19" s="93">
-        <v>300000</v>
+      <c r="L19" s="91">
+        <v>200000</v>
       </c>
       <c r="M19" s="93">
-        <f>H19*G19</f>
-        <v>1092000</v>
-      </c>
-      <c r="N19" s="5"/>
+        <f>G19*H19</f>
+        <v>815500</v>
+      </c>
+      <c r="N19" s="69"/>
       <c r="O19" s="5">
-        <f>I19+J19+K19+L19+M19+N19</f>
-        <v>3721000</v>
+        <f t="shared" si="1"/>
+        <v>2990500</v>
       </c>
       <c r="P19" s="5"/>
-      <c r="Q19" s="97">
-        <v>700000</v>
-      </c>
+      <c r="Q19" s="5"/>
       <c r="R19" s="92">
-        <f t="shared" ref="R19:R20" si="5">O19-P19-Q19</f>
-        <v>3021000</v>
-      </c>
-      <c r="T19" s="101"/>
+        <f t="shared" si="5"/>
+        <v>2990500</v>
+      </c>
+      <c r="T19" s="92"/>
     </row>
     <row r="20" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="72">
-        <v>13</v>
-      </c>
-      <c r="B20" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="89">
-        <v>3780462191</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="68">
+        <v>1091892583</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="111">
-        <v>23</v>
+        <v>109</v>
+      </c>
+      <c r="E20" s="89">
+        <v>27</v>
       </c>
       <c r="F20" s="90">
-        <v>25000</v>
-      </c>
-      <c r="G20" s="5">
-        <v>466</v>
-      </c>
-      <c r="H20" s="91">
-        <v>1750</v>
+        <v>35000</v>
+      </c>
+      <c r="G20" s="55">
+        <v>0</v>
+      </c>
+      <c r="H20" s="55">
+        <v>0</v>
       </c>
       <c r="I20" s="69">
-        <v>1200000</v>
-      </c>
-      <c r="J20" s="93">
-        <f t="shared" ref="J20" si="6">F20*E20</f>
-        <v>575000</v>
-      </c>
-      <c r="K20" s="91">
-        <v>200000</v>
-      </c>
-      <c r="L20" s="91">
-        <v>200000</v>
-      </c>
-      <c r="M20" s="93">
-        <f>G20*H20</f>
-        <v>815500</v>
-      </c>
-      <c r="N20" s="69"/>
+        <v>1900000</v>
+      </c>
+      <c r="J20" s="69">
+        <f>F20*E20</f>
+        <v>945000</v>
+      </c>
+      <c r="K20" s="69">
+        <v>550000</v>
+      </c>
+      <c r="L20" s="69">
+        <v>800000</v>
+      </c>
+      <c r="M20" s="69">
+        <f>H20*G20</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="55"/>
       <c r="O20" s="5">
-        <f t="shared" si="1"/>
-        <v>2990500</v>
-      </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+        <f>I20+J20+K20+L20+M20+N20</f>
+        <v>4195000</v>
+      </c>
+      <c r="P20" s="5">
+        <v>279980</v>
+      </c>
+      <c r="Q20" s="97">
+        <v>300000</v>
+      </c>
       <c r="R20" s="92">
-        <f t="shared" si="5"/>
-        <v>2990500</v>
-      </c>
-      <c r="T20" s="92"/>
+        <f>O20-P20-Q20</f>
+        <v>3615020</v>
+      </c>
+      <c r="T20" s="85"/>
     </row>
     <row r="21" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A21" s="72">
-        <v>14</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="68">
-        <v>1091892583</v>
-      </c>
-      <c r="D21" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="89">
-        <v>27</v>
-      </c>
-      <c r="F21" s="90">
-        <v>35000</v>
-      </c>
-      <c r="G21" s="55">
-        <v>0</v>
-      </c>
-      <c r="H21" s="55">
-        <v>0</v>
-      </c>
-      <c r="I21" s="69">
-        <v>1900000</v>
-      </c>
-      <c r="J21" s="69">
+        <v>15</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="65">
+        <v>1091894489</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="94">
+        <v>26</v>
+      </c>
+      <c r="F21" s="96">
+        <v>30000</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="93">
+        <v>1700000</v>
+      </c>
+      <c r="J21" s="93">
         <f>F21*E21</f>
-        <v>945000</v>
-      </c>
-      <c r="K21" s="69">
+        <v>780000</v>
+      </c>
+      <c r="K21" s="93">
+        <v>200000</v>
+      </c>
+      <c r="L21" s="93">
         <v>550000</v>
       </c>
-      <c r="L21" s="69">
-        <v>800000</v>
-      </c>
-      <c r="M21" s="69">
+      <c r="M21" s="93">
         <f>H21*G21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="55"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="5">
         <f>I21+J21+K21+L21+M21+N21</f>
-        <v>4195000</v>
-      </c>
-      <c r="P21" s="5">
-        <v>279980</v>
-      </c>
-      <c r="Q21" s="97">
-        <v>300000</v>
+        <v>3230000</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="100">
+        <v>500000</v>
       </c>
       <c r="R21" s="92">
-        <f>O21-P21-Q21</f>
-        <v>3615020</v>
-      </c>
-      <c r="T21" s="85"/>
+        <f t="shared" ref="R21:R22" si="7">O21-P21-Q21</f>
+        <v>2730000</v>
+      </c>
+      <c r="T21" s="95"/>
     </row>
     <row r="22" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="72">
-        <v>15</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="65">
-        <v>1091894489</v>
-      </c>
-      <c r="D22" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="103">
+        <v>1091892877</v>
+      </c>
+      <c r="D22" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="94">
-        <v>26</v>
-      </c>
-      <c r="F22" s="96">
-        <v>30000</v>
+      <c r="E22" s="99">
+        <v>27</v>
+      </c>
+      <c r="F22" s="104">
+        <v>35000</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
+      <c r="H22" s="5"/>
       <c r="I22" s="93">
         <v>1700000</v>
       </c>
       <c r="J22" s="93">
         <f>F22*E22</f>
-        <v>780000</v>
+        <v>945000</v>
       </c>
       <c r="K22" s="93">
         <v>200000</v>
       </c>
       <c r="L22" s="93">
-        <v>550000</v>
+        <v>300000</v>
       </c>
       <c r="M22" s="93">
-        <f>H22*G22</f>
         <v>0</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5">
         <f>I22+J22+K22+L22+M22+N22</f>
-        <v>3230000</v>
-      </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="100">
-        <v>500000</v>
+        <v>3145000</v>
+      </c>
+      <c r="P22" s="5">
+        <v>279980</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
       </c>
       <c r="R22" s="92">
-        <f t="shared" ref="R22:R23" si="7">O22-P22-Q22</f>
-        <v>2730000</v>
+        <f t="shared" si="7"/>
+        <v>2865020</v>
       </c>
       <c r="T22" s="95"/>
     </row>
     <row r="23" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="72">
-        <v>16</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="103">
-        <v>1091892877</v>
-      </c>
-      <c r="D23" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="99">
-        <v>27</v>
-      </c>
-      <c r="F23" s="104">
-        <v>35000</v>
-      </c>
+      <c r="A23" s="72"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="112"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="93">
-        <v>1700000</v>
-      </c>
-      <c r="J23" s="93">
-        <f>F23*E23</f>
-        <v>945000</v>
-      </c>
-      <c r="K23" s="93">
-        <v>200000</v>
-      </c>
-      <c r="L23" s="93">
-        <v>300000</v>
-      </c>
-      <c r="M23" s="93">
-        <v>0</v>
-      </c>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="5">
-        <f>I23+J23+K23+L23+M23+N23</f>
-        <v>3145000</v>
-      </c>
-      <c r="P23" s="5">
-        <v>279980</v>
+      <c r="O23" s="67">
+        <f>SUM(O20:O22)</f>
+        <v>10570000</v>
+      </c>
+      <c r="P23" s="67">
+        <f>SUM(P20:P22)</f>
+        <v>559960</v>
       </c>
       <c r="Q23" s="5">
-        <v>0</v>
+        <f>SUM(Q20:Q22)</f>
+        <v>800000</v>
       </c>
       <c r="R23" s="92">
-        <f t="shared" si="7"/>
-        <v>2865020</v>
-      </c>
-      <c r="T23" s="95"/>
+        <f>O23-P23-Q23</f>
+        <v>9210040</v>
+      </c>
+      <c r="S23" s="95"/>
     </row>
     <row r="24" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="72"/>
-      <c r="B24" s="65"/>
+      <c r="B24" s="102" t="s">
+        <v>65</v>
+      </c>
       <c r="C24" s="65"/>
-      <c r="D24" s="94" t="s">
-        <v>104</v>
-      </c>
+      <c r="D24" s="94"/>
       <c r="E24" s="112"/>
       <c r="F24" s="93"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="93"/>
-      <c r="J24" s="93" t="s">
-        <v>71</v>
-      </c>
+      <c r="J24" s="93"/>
       <c r="K24" s="93"/>
       <c r="L24" s="93"/>
       <c r="M24" s="93"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="67">
-        <f>SUM(O21:O23)</f>
-        <v>10570000</v>
-      </c>
-      <c r="P24" s="67">
-        <f>SUM(P21:P23)</f>
-        <v>559960</v>
-      </c>
-      <c r="Q24" s="5">
-        <f>SUM(Q21:Q23)</f>
-        <v>800000</v>
-      </c>
-      <c r="R24" s="92">
-        <f>O24-P24-Q24</f>
-        <v>9210040</v>
-      </c>
-      <c r="S24" s="95"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="92"/>
+      <c r="T24" s="95"/>
     </row>
     <row r="25" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="72"/>
-      <c r="B25" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="92"/>
-      <c r="T25" s="95"/>
+      <c r="A25" s="47">
+        <v>1</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="65">
+        <v>1091894624</v>
+      </c>
+      <c r="D25" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="94">
+        <v>27</v>
+      </c>
+      <c r="F25" s="93">
+        <v>50000</v>
+      </c>
+      <c r="G25" s="93">
+        <v>182</v>
+      </c>
+      <c r="H25" s="93">
+        <v>10000</v>
+      </c>
+      <c r="I25" s="93">
+        <v>1000000</v>
+      </c>
+      <c r="J25" s="93">
+        <f>F25*E25</f>
+        <v>1350000</v>
+      </c>
+      <c r="K25" s="93">
+        <v>0</v>
+      </c>
+      <c r="L25" s="93">
+        <v>0</v>
+      </c>
+      <c r="M25" s="93">
+        <f>H25*G25</f>
+        <v>1820000</v>
+      </c>
+      <c r="N25" s="5">
+        <f>5000*94</f>
+        <v>470000</v>
+      </c>
+      <c r="O25" s="5">
+        <f>I25+J25+K25+L25+M25+N25</f>
+        <v>4640000</v>
+      </c>
+      <c r="P25" s="5">
+        <v>279980</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="92">
+        <f>O25-P25-Q25</f>
+        <v>4360020</v>
+      </c>
+      <c r="S25" s="69"/>
+      <c r="T25" s="71"/>
     </row>
     <row r="26" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
-        <v>1</v>
+      <c r="A26" s="72">
+        <v>2</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26" s="65">
-        <v>1091894624</v>
+        <v>8730628243</v>
       </c>
       <c r="D26" s="94" t="s">
         <v>114</v>
@@ -4508,13 +4547,13 @@
         <v>50000</v>
       </c>
       <c r="G26" s="93">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H26" s="93">
         <v>10000</v>
       </c>
       <c r="I26" s="93">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="J26" s="93">
         <f>F26*E26</f>
@@ -4528,38 +4567,34 @@
       </c>
       <c r="M26" s="93">
         <f>H26*G26</f>
-        <v>1820000</v>
+        <v>1610000</v>
       </c>
       <c r="N26" s="5">
-        <f>5000*94</f>
-        <v>470000</v>
+        <f>5000*80</f>
+        <v>400000</v>
       </c>
       <c r="O26" s="5">
-        <f>I26+J26+K26+L26+M26+N26</f>
-        <v>4640000</v>
-      </c>
-      <c r="P26" s="5">
-        <v>279980</v>
-      </c>
+        <f t="shared" ref="O26:O29" si="8">I26+J26+K26+L26+M26+N26</f>
+        <v>4260000</v>
+      </c>
+      <c r="P26" s="5"/>
       <c r="Q26" s="5">
         <v>0</v>
       </c>
       <c r="R26" s="92">
-        <f>O26-P26-Q26</f>
-        <v>4360020</v>
-      </c>
-      <c r="S26" s="69"/>
-      <c r="T26" s="71"/>
+        <f t="shared" ref="R26:R29" si="9">O26-P26-Q26</f>
+        <v>4260000</v>
+      </c>
     </row>
     <row r="27" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A27" s="72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C27" s="65">
-        <v>8730628243</v>
+        <v>8761064797</v>
       </c>
       <c r="D27" s="94" t="s">
         <v>114</v>
@@ -4571,54 +4606,53 @@
         <v>50000</v>
       </c>
       <c r="G27" s="93">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H27" s="93">
         <v>10000</v>
       </c>
       <c r="I27" s="93">
-        <v>900000</v>
+        <v>750000</v>
       </c>
       <c r="J27" s="93">
         <f>F27*E27</f>
         <v>1350000</v>
       </c>
-      <c r="K27" s="93">
-        <v>0</v>
-      </c>
-      <c r="L27" s="93">
-        <v>0</v>
-      </c>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
       <c r="M27" s="93">
         <f>H27*G27</f>
-        <v>1610000</v>
+        <v>1510000</v>
       </c>
       <c r="N27" s="5">
-        <f>5000*80</f>
-        <v>400000</v>
+        <f>5000*85</f>
+        <v>425000</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" ref="O27:O30" si="8">I27+J27+K27+L27+M27+N27</f>
-        <v>4260000</v>
-      </c>
-      <c r="P27" s="5"/>
+        <f t="shared" si="8"/>
+        <v>4035000</v>
+      </c>
+      <c r="P27" s="5">
+        <v>279980</v>
+      </c>
       <c r="Q27" s="5">
         <v>0</v>
       </c>
       <c r="R27" s="92">
-        <f t="shared" ref="R27:R30" si="9">O27-P27-Q27</f>
-        <v>4260000</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>3755020</v>
+      </c>
+      <c r="S27" s="105"/>
     </row>
     <row r="28" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="72">
-        <v>3</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="65">
-        <v>8761064797</v>
+        <v>4</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="68">
+        <v>1091894608</v>
       </c>
       <c r="D28" s="94" t="s">
         <v>114</v>
@@ -4630,7 +4664,7 @@
         <v>50000</v>
       </c>
       <c r="G28" s="93">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="H28" s="93">
         <v>10000</v>
@@ -4646,49 +4680,48 @@
       <c r="L28" s="93"/>
       <c r="M28" s="93">
         <f>H28*G28</f>
-        <v>1510000</v>
+        <v>1690000</v>
       </c>
       <c r="N28" s="5">
-        <f>5000*85</f>
-        <v>425000</v>
+        <f>5000*78</f>
+        <v>390000</v>
       </c>
       <c r="O28" s="5">
         <f t="shared" si="8"/>
-        <v>4035000</v>
-      </c>
-      <c r="P28" s="5">
-        <v>279980</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>0</v>
+        <v>4180000</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="100">
+        <v>300000</v>
       </c>
       <c r="R28" s="92">
         <f t="shared" si="9"/>
-        <v>3755020</v>
-      </c>
-      <c r="S28" s="105"/>
+        <v>3880000</v>
+      </c>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
     </row>
     <row r="29" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A29" s="72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" s="68">
-        <v>1091894608</v>
-      </c>
-      <c r="D29" s="94" t="s">
+        <v>1091894616</v>
+      </c>
+      <c r="D29" s="89" t="s">
         <v>114</v>
       </c>
       <c r="E29" s="94">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="93">
         <v>50000</v>
       </c>
       <c r="G29" s="93">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="H29" s="93">
         <v>10000</v>
@@ -4698,122 +4731,65 @@
       </c>
       <c r="J29" s="93">
         <f>F29*E29</f>
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="K29" s="93"/>
       <c r="L29" s="93"/>
       <c r="M29" s="93">
         <f>H29*G29</f>
-        <v>1690000</v>
+        <v>1510000</v>
       </c>
       <c r="N29" s="5">
-        <f>5000*78</f>
-        <v>390000</v>
+        <f>5000*76</f>
+        <v>380000</v>
       </c>
       <c r="O29" s="5">
         <f t="shared" si="8"/>
-        <v>4180000</v>
+        <v>3940000</v>
       </c>
       <c r="P29" s="5"/>
-      <c r="Q29" s="100">
-        <v>300000</v>
+      <c r="Q29" s="5">
+        <v>0</v>
       </c>
       <c r="R29" s="92">
         <f t="shared" si="9"/>
-        <v>3880000</v>
+        <v>3940000</v>
       </c>
       <c r="S29" s="85"/>
       <c r="T29" s="85"/>
     </row>
     <row r="30" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="72">
-        <v>5</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="68">
-        <v>1091894616</v>
-      </c>
-      <c r="D30" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="94">
-        <v>26</v>
-      </c>
-      <c r="F30" s="93">
-        <v>50000</v>
-      </c>
-      <c r="G30" s="93">
-        <v>151</v>
-      </c>
-      <c r="H30" s="93">
-        <v>10000</v>
-      </c>
-      <c r="I30" s="93">
-        <v>750000</v>
-      </c>
-      <c r="J30" s="93">
-        <f>F30*E30</f>
-        <v>1300000</v>
-      </c>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93">
-        <f>H30*G30</f>
-        <v>1510000</v>
-      </c>
-      <c r="N30" s="5">
-        <f>5000*76</f>
-        <v>380000</v>
-      </c>
-      <c r="O30" s="5">
-        <f t="shared" si="8"/>
-        <v>3940000</v>
-      </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5">
-        <v>0</v>
+      <c r="D30" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="109"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="107">
+        <f>SUM(O25:O29)</f>
+        <v>21055000</v>
+      </c>
+      <c r="P30" s="107">
+        <f>SUM(P25:P29)</f>
+        <v>559960</v>
+      </c>
+      <c r="Q30" s="55">
+        <f>SUM(Q25:Q29)</f>
+        <v>300000</v>
       </c>
       <c r="R30" s="92">
-        <f t="shared" si="9"/>
-        <v>3940000</v>
-      </c>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-    </row>
-    <row r="31" spans="1:20" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="D31" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="109"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="107">
-        <f>SUM(O26:O30)</f>
-        <v>21055000</v>
-      </c>
-      <c r="P31" s="107">
-        <f>SUM(P26:P30)</f>
-        <v>559960</v>
-      </c>
-      <c r="Q31" s="55">
-        <f>SUM(Q26:Q30)</f>
-        <v>300000</v>
-      </c>
-      <c r="R31" s="92">
-        <f>O31-P31-Q31</f>
+        <f>O30-P30-Q30</f>
         <v>20195040</v>
       </c>
-      <c r="S31" s="69"/>
-      <c r="T31" s="72"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4824,8 +4800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EC4FE7-41C6-4EC6-9A2C-ED5198A12057}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
